--- a/AmazoneTest/report/summary.xlsx
+++ b/AmazoneTest/report/summary.xlsx
@@ -29,15 +29,6 @@
     <t>symm_hyperbolic_svm</t>
   </si>
   <si>
-    <t>new_ig_naive_bayse</t>
-  </si>
-  <si>
-    <t>new_ig_linear_svm</t>
-  </si>
-  <si>
-    <t>new_ig_hyperbolic_svm</t>
-  </si>
-  <si>
     <t>ReliefF_naive_bayse</t>
   </si>
   <si>
@@ -66,6 +57,15 @@
   </si>
   <si>
     <t>information_gain_naive_bayes</t>
+  </si>
+  <si>
+    <t>info_gain_naive_bayse</t>
+  </si>
+  <si>
+    <t>info_gain_linear_svm</t>
+  </si>
+  <si>
+    <t>info_gain_hyperbolic_svm</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1285,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>new_ig_naive_bayse</c:v>
+                  <c:v>info_gain_naive_bayse</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1611,304 +1611,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.64464285714285696</c:v>
+                  <c:v>0.66785714285714204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67455357142857097</c:v>
+                  <c:v>0.70089285714285698</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.71071428571428497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72276785714285696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73482142857142796</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75044642857142796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74687499999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74776785714285698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74375000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74196428571428497</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.74241071428571404</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.74375000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.74330357142857095</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.74017857142857102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.74107142857142805</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.74285714285714199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.74107142857142805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.73616071428571395</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.73705357142857097</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.73616071428571395</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.73526785714285703</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.73348214285714197</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.73616071428571395</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.73258928571428505</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.73035714285714204</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.72857142857142798</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.72723214285714199</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.72901785714285705</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72767857142857095</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.72589285714285701</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.72767857142857095</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.72187500000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.72321428571428503</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.72455357142857102</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.72098214285714202</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.71473214285714204</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.71830357142857104</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.71651785714285698</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.71473214285714204</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.71741071428571401</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.71116071428571404</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.70625000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.70223214285714197</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.70133928571428505</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0.70267857142857104</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.71785714285714197</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.71785714285714197</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.71830357142857104</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.71473214285714204</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.70982142857142805</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.70491071428571395</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.70491071428571395</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.69687500000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="47">
+                  <c:v>0.69732142857142798</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.69285714285714195</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.69374999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.68928571428571395</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>0.691071428571428</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="52">
+                  <c:v>0.69062500000000004</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.69017857142857097</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>0.69196428571428503</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="55">
+                  <c:v>0.69241071428571399</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.69419642857142805</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.69151785714285696</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.69062500000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>0.69017857142857097</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.69196428571428503</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="60">
+                  <c:v>0.68883928571428499</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.69017857142857097</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>0.691071428571428</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.69419642857142805</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.69508928571428497</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.69553571428571404</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.69553571428571404</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.69508928571428497</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.69464285714285701</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.69330357142857102</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.68973214285714202</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="63">
+                  <c:v>0.68883928571428499</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.68794642857142796</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.68839285714285703</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>0.6875</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="67">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68839285714285703</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.68705357142857104</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.68660714285714197</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.68571428571428505</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.68616071428571401</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>0.68526785714285698</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.68928571428571395</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="74">
+                  <c:v>0.68482142857142803</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>0.68526785714285698</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.68080357142857095</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.68125000000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.68214285714285705</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.69062500000000004</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="76">
+                  <c:v>0.68839285714285703</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.68705357142857104</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.68660714285714197</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>0.68616071428571401</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.67321428571428499</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.68080357142857095</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.67857142857142805</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.67723214285714195</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.675446428571428</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.668303571428571</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.668303571428571</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.66562500000000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.66785714285714204</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.66383928571428497</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.66383928571428497</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.66383928571428497</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.66249999999999998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.65892857142857097</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.65937500000000004</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.65491071428571401</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.65089285714285705</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.64687499999999998</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.64642857142857102</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.64553571428571399</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.64464285714285696</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.64642857142857102</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.64598214285714195</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.64687499999999998</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.64776785714285701</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.64776785714285701</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.64955357142857095</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.65223214285714204</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.652678571428571</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.65223214285714204</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.65178571428571397</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.64955357142857095</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.65044642857142798</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.65044642857142798</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.65133928571428501</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.65044642857142798</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.65089285714285705</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.65044642857142798</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.64955357142857095</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.64866071428571404</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.64821428571428497</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.64866071428571404</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.64866071428571404</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.64642857142857102</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.64687499999999998</c:v>
-                </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.64642857142857102</c:v>
+                  <c:v>0.6875</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.644196428571428</c:v>
+                  <c:v>0.68839285714285703</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.64642857142857102</c:v>
+                  <c:v>0.68705357142857104</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.64776785714285701</c:v>
+                  <c:v>0.68482142857142803</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.64687499999999998</c:v>
+                  <c:v>0.68482142857142803</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.64732142857142805</c:v>
+                  <c:v>0.68616071428571401</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.64642857142857102</c:v>
+                  <c:v>0.68571428571428505</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.64598214285714195</c:v>
+                  <c:v>0.68571428571428505</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.64642857142857102</c:v>
+                  <c:v>0.68571428571428505</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.64508928571428503</c:v>
+                  <c:v>0.68705357142857104</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.64464285714285696</c:v>
+                  <c:v>0.68794642857142796</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.64464285714285696</c:v>
+                  <c:v>0.68526785714285698</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.64642857142857102</c:v>
+                  <c:v>0.68348214285714204</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.64508928571428503</c:v>
+                  <c:v>0.68348214285714204</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.64687499999999998</c:v>
+                  <c:v>0.68169642857142798</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.64642857142857102</c:v>
+                  <c:v>0.68348214285714204</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.64687499999999998</c:v>
+                  <c:v>0.68348214285714204</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.64687499999999998</c:v>
+                  <c:v>0.68303571428571397</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.64508928571428503</c:v>
+                  <c:v>0.67812499999999998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.64776785714285701</c:v>
+                  <c:v>0.68035714285714199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2941,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2973,22 +2973,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3005,13 +3005,13 @@
         <v>0.67098214285714197</v>
       </c>
       <c r="E2">
-        <v>0.64464285714285696</v>
+        <v>0.66785714285714204</v>
       </c>
       <c r="F2">
-        <v>0.65446428571428505</v>
+        <v>0.66562500000000002</v>
       </c>
       <c r="G2">
-        <v>0.66116071428571399</v>
+        <v>0.66562500000000002</v>
       </c>
       <c r="H2">
         <v>0.58080357142857097</v>
@@ -3037,13 +3037,13 @@
         <v>0.675446428571428</v>
       </c>
       <c r="E3">
-        <v>0.67455357142857097</v>
+        <v>0.70089285714285698</v>
       </c>
       <c r="F3">
         <v>0.67500000000000004</v>
       </c>
       <c r="G3">
-        <v>0.68660714285714197</v>
+        <v>0.68705357142857104</v>
       </c>
       <c r="H3">
         <v>0.60446428571428501</v>
@@ -3069,13 +3069,13 @@
         <v>0.68839285714285703</v>
       </c>
       <c r="E4">
-        <v>0.70267857142857104</v>
+        <v>0.71071428571428497</v>
       </c>
       <c r="F4">
-        <v>0.69553571428571404</v>
+        <v>0.67678571428571399</v>
       </c>
       <c r="G4">
-        <v>0.69374999999999998</v>
+        <v>0.67633928571428503</v>
       </c>
       <c r="H4">
         <v>0.61651785714285701</v>
@@ -3101,13 +3101,13 @@
         <v>0.70446428571428499</v>
       </c>
       <c r="E5">
-        <v>0.71785714285714197</v>
+        <v>0.72276785714285696</v>
       </c>
       <c r="F5">
-        <v>0.706696428571428</v>
+        <v>0.69687500000000002</v>
       </c>
       <c r="G5">
-        <v>0.70625000000000004</v>
+        <v>0.70178571428571401</v>
       </c>
       <c r="H5">
         <v>0.62901785714285696</v>
@@ -3133,13 +3133,13 @@
         <v>0.71339285714285705</v>
       </c>
       <c r="E6">
-        <v>0.71785714285714197</v>
+        <v>0.73482142857142796</v>
       </c>
       <c r="F6">
         <v>0.70401785714285703</v>
       </c>
       <c r="G6">
-        <v>0.69642857142857095</v>
+        <v>0.71294642857142798</v>
       </c>
       <c r="H6">
         <v>0.63169642857142805</v>
@@ -3165,13 +3165,13 @@
         <v>0.72366071428571399</v>
       </c>
       <c r="E7">
-        <v>0.71830357142857104</v>
+        <v>0.75044642857142796</v>
       </c>
       <c r="F7">
-        <v>0.7</v>
+        <v>0.706696428571428</v>
       </c>
       <c r="G7">
-        <v>0.69642857142857095</v>
+        <v>0.72142857142857097</v>
       </c>
       <c r="H7">
         <v>0.640625</v>
@@ -3197,13 +3197,13 @@
         <v>0.72455357142857102</v>
       </c>
       <c r="E8">
-        <v>0.71473214285714204</v>
+        <v>0.74687499999999996</v>
       </c>
       <c r="F8">
-        <v>0.69776785714285705</v>
+        <v>0.70401785714285703</v>
       </c>
       <c r="G8">
-        <v>0.69464285714285701</v>
+        <v>0.72053571428571395</v>
       </c>
       <c r="H8">
         <v>0.64508928571428503</v>
@@ -3229,13 +3229,13 @@
         <v>0.722321428571428</v>
       </c>
       <c r="E9">
-        <v>0.70982142857142805</v>
+        <v>0.74776785714285698</v>
       </c>
       <c r="F9">
-        <v>0.69866071428571397</v>
+        <v>0.703125</v>
       </c>
       <c r="G9">
-        <v>0.69419642857142805</v>
+        <v>0.72008928571428499</v>
       </c>
       <c r="H9">
         <v>0.64866071428571404</v>
@@ -3261,13 +3261,13 @@
         <v>0.71875</v>
       </c>
       <c r="E10">
-        <v>0.70491071428571395</v>
+        <v>0.74375000000000002</v>
       </c>
       <c r="F10">
-        <v>0.699553571428571</v>
+        <v>0.70357142857142796</v>
       </c>
       <c r="G10">
-        <v>0.69508928571428497</v>
+        <v>0.72321428571428503</v>
       </c>
       <c r="H10">
         <v>0.64553571428571399</v>
@@ -3293,13 +3293,13 @@
         <v>0.71741071428571401</v>
       </c>
       <c r="E11">
-        <v>0.70491071428571395</v>
+        <v>0.74196428571428497</v>
       </c>
       <c r="F11">
-        <v>0.69553571428571404</v>
+        <v>0.70580357142857097</v>
       </c>
       <c r="G11">
-        <v>0.69553571428571404</v>
+        <v>0.71741071428571401</v>
       </c>
       <c r="H11">
         <v>0.64732142857142805</v>
@@ -3325,13 +3325,13 @@
         <v>0.72410714285714195</v>
       </c>
       <c r="E12">
-        <v>0.69687500000000002</v>
+        <v>0.74241071428571404</v>
       </c>
       <c r="F12">
-        <v>0.68035714285714199</v>
+        <v>0.70848214285714195</v>
       </c>
       <c r="G12">
-        <v>0.67633928571428503</v>
+        <v>0.72276785714285696</v>
       </c>
       <c r="H12">
         <v>0.64910714285714199</v>
@@ -3357,13 +3357,13 @@
         <v>0.72053571428571395</v>
       </c>
       <c r="E13">
-        <v>0.691071428571428</v>
+        <v>0.74375000000000002</v>
       </c>
       <c r="F13">
-        <v>0.69285714285714195</v>
+        <v>0.706696428571428</v>
       </c>
       <c r="G13">
-        <v>0.69642857142857095</v>
+        <v>0.72276785714285696</v>
       </c>
       <c r="H13">
         <v>0.65</v>
@@ -3389,13 +3389,13 @@
         <v>0.72410714285714195</v>
       </c>
       <c r="E14">
-        <v>0.69196428571428503</v>
+        <v>0.74330357142857095</v>
       </c>
       <c r="F14">
-        <v>0.683928571428571</v>
+        <v>0.71160714285714199</v>
       </c>
       <c r="G14">
-        <v>0.68482142857142803</v>
+        <v>0.722321428571428</v>
       </c>
       <c r="H14">
         <v>0.65178571428571397</v>
@@ -3421,13 +3421,13 @@
         <v>0.72053571428571395</v>
       </c>
       <c r="E15">
-        <v>0.69017857142857097</v>
+        <v>0.74017857142857102</v>
       </c>
       <c r="F15">
-        <v>0.68035714285714199</v>
+        <v>0.71116071428571404</v>
       </c>
       <c r="G15">
-        <v>0.68035714285714199</v>
+        <v>0.71696428571428505</v>
       </c>
       <c r="H15">
         <v>0.652678571428571</v>
@@ -3453,13 +3453,13 @@
         <v>0.71919642857142796</v>
       </c>
       <c r="E16">
-        <v>0.69196428571428503</v>
+        <v>0.74107142857142805</v>
       </c>
       <c r="F16">
-        <v>0.69285714285714195</v>
+        <v>0.70446428571428499</v>
       </c>
       <c r="G16">
-        <v>0.69062500000000004</v>
+        <v>0.72142857142857097</v>
       </c>
       <c r="H16">
         <v>0.65357142857142803</v>
@@ -3485,13 +3485,13 @@
         <v>0.72053571428571395</v>
       </c>
       <c r="E17">
-        <v>0.691071428571428</v>
+        <v>0.74285714285714199</v>
       </c>
       <c r="F17">
-        <v>0.68035714285714199</v>
+        <v>0.70803571428571399</v>
       </c>
       <c r="G17">
-        <v>0.67812499999999998</v>
+        <v>0.722321428571428</v>
       </c>
       <c r="H17">
         <v>0.65133928571428501</v>
@@ -3517,13 +3517,13 @@
         <v>0.72321428571428503</v>
       </c>
       <c r="E18">
-        <v>0.69419642857142805</v>
+        <v>0.74107142857142805</v>
       </c>
       <c r="F18">
-        <v>0.69821428571428501</v>
+        <v>0.71294642857142798</v>
       </c>
       <c r="G18">
-        <v>0.683928571428571</v>
+        <v>0.71741071428571401</v>
       </c>
       <c r="H18">
         <v>0.65535714285714197</v>
@@ -3549,13 +3549,13 @@
         <v>0.72187500000000004</v>
       </c>
       <c r="E19">
-        <v>0.69508928571428497</v>
+        <v>0.73616071428571395</v>
       </c>
       <c r="F19">
-        <v>0.69508928571428497</v>
+        <v>0.71160714285714199</v>
       </c>
       <c r="G19">
-        <v>0.68883928571428499</v>
+        <v>0.72053571428571395</v>
       </c>
       <c r="H19">
         <v>0.65491071428571401</v>
@@ -3581,13 +3581,13 @@
         <v>0.72321428571428503</v>
       </c>
       <c r="E20">
-        <v>0.69553571428571404</v>
+        <v>0.73705357142857097</v>
       </c>
       <c r="F20">
-        <v>0.69553571428571404</v>
+        <v>0.70580357142857097</v>
       </c>
       <c r="G20">
-        <v>0.68616071428571401</v>
+        <v>0.72321428571428503</v>
       </c>
       <c r="H20">
         <v>0.65535714285714197</v>
@@ -3613,13 +3613,13 @@
         <v>0.72321428571428503</v>
       </c>
       <c r="E21">
-        <v>0.69553571428571404</v>
+        <v>0.73616071428571395</v>
       </c>
       <c r="F21">
-        <v>0.69598214285714199</v>
+        <v>0.70491071428571395</v>
       </c>
       <c r="G21">
-        <v>0.69285714285714195</v>
+        <v>0.72142857142857097</v>
       </c>
       <c r="H21">
         <v>0.65312499999999996</v>
@@ -3645,13 +3645,13 @@
         <v>0.72142857142857097</v>
       </c>
       <c r="E22">
-        <v>0.69508928571428497</v>
+        <v>0.73526785714285703</v>
       </c>
       <c r="F22">
-        <v>0.69642857142857095</v>
+        <v>0.70580357142857097</v>
       </c>
       <c r="G22">
-        <v>0.68303571428571397</v>
+        <v>0.72276785714285696</v>
       </c>
       <c r="H22">
         <v>0.65312499999999996</v>
@@ -3677,13 +3677,13 @@
         <v>0.72410714285714195</v>
       </c>
       <c r="E23">
-        <v>0.69464285714285701</v>
+        <v>0.73348214285714197</v>
       </c>
       <c r="F23">
-        <v>0.69419642857142805</v>
+        <v>0.70625000000000004</v>
       </c>
       <c r="G23">
-        <v>0.68169642857142798</v>
+        <v>0.722321428571428</v>
       </c>
       <c r="H23">
         <v>0.65669642857142796</v>
@@ -3709,13 +3709,13 @@
         <v>0.72321428571428503</v>
       </c>
       <c r="E24">
-        <v>0.69330357142857102</v>
+        <v>0.73616071428571395</v>
       </c>
       <c r="F24">
-        <v>0.68080357142857095</v>
+        <v>0.70625000000000004</v>
       </c>
       <c r="G24">
-        <v>0.69910714285714204</v>
+        <v>0.72142857142857097</v>
       </c>
       <c r="H24">
         <v>0.65357142857142803</v>
@@ -3741,13 +3741,13 @@
         <v>0.71919642857142796</v>
       </c>
       <c r="E25">
-        <v>0.68973214285714202</v>
+        <v>0.73258928571428505</v>
       </c>
       <c r="F25">
-        <v>0.67589285714285696</v>
+        <v>0.70758928571428503</v>
       </c>
       <c r="G25">
-        <v>0.67589285714285696</v>
+        <v>0.72187500000000004</v>
       </c>
       <c r="H25">
         <v>0.65089285714285705</v>
@@ -3773,13 +3773,13 @@
         <v>0.722321428571428</v>
       </c>
       <c r="E26">
-        <v>0.6875</v>
+        <v>0.73035714285714204</v>
       </c>
       <c r="F26">
-        <v>0.67410714285714202</v>
+        <v>0.70758928571428503</v>
       </c>
       <c r="G26">
-        <v>0.68035714285714199</v>
+        <v>0.722321428571428</v>
       </c>
       <c r="H26">
         <v>0.652678571428571</v>
@@ -3805,13 +3805,13 @@
         <v>0.71964285714285703</v>
       </c>
       <c r="E27">
-        <v>0.68526785714285698</v>
+        <v>0.72857142857142798</v>
       </c>
       <c r="F27">
-        <v>0.68794642857142796</v>
+        <v>0.706696428571428</v>
       </c>
       <c r="G27">
-        <v>0.68883928571428499</v>
+        <v>0.71964285714285703</v>
       </c>
       <c r="H27">
         <v>0.652678571428571</v>
@@ -3837,13 +3837,13 @@
         <v>0.72187500000000004</v>
       </c>
       <c r="E28">
-        <v>0.68928571428571395</v>
+        <v>0.72723214285714199</v>
       </c>
       <c r="F28">
-        <v>0.67857142857142805</v>
+        <v>0.70758928571428503</v>
       </c>
       <c r="G28">
-        <v>0.67633928571428503</v>
+        <v>0.72321428571428503</v>
       </c>
       <c r="H28">
         <v>0.65089285714285705</v>
@@ -3869,13 +3869,13 @@
         <v>0.72276785714285696</v>
       </c>
       <c r="E29">
-        <v>0.68526785714285698</v>
+        <v>0.72901785714285705</v>
       </c>
       <c r="F29">
-        <v>0.68705357142857104</v>
+        <v>0.70714285714285696</v>
       </c>
       <c r="G29">
-        <v>0.68616071428571401</v>
+        <v>0.72321428571428503</v>
       </c>
       <c r="H29">
         <v>0.65401785714285698</v>
@@ -3901,13 +3901,13 @@
         <v>0.72142857142857097</v>
       </c>
       <c r="E30">
-        <v>0.68080357142857095</v>
+        <v>0.72767857142857095</v>
       </c>
       <c r="F30">
-        <v>0.69464285714285701</v>
+        <v>0.71383928571428501</v>
       </c>
       <c r="G30">
-        <v>0.69062500000000004</v>
+        <v>0.72276785714285696</v>
       </c>
       <c r="H30">
         <v>0.65446428571428505</v>
@@ -3933,13 +3933,13 @@
         <v>0.722321428571428</v>
       </c>
       <c r="E31">
-        <v>0.68125000000000002</v>
+        <v>0.72589285714285701</v>
       </c>
       <c r="F31">
-        <v>0.67633928571428503</v>
+        <v>0.70892857142857102</v>
       </c>
       <c r="G31">
-        <v>0.68526785714285698</v>
+        <v>0.72455357142857102</v>
       </c>
       <c r="H31">
         <v>0.65133928571428501</v>
@@ -3965,13 +3965,13 @@
         <v>0.72098214285714202</v>
       </c>
       <c r="E32">
-        <v>0.68214285714285705</v>
+        <v>0.72767857142857095</v>
       </c>
       <c r="F32">
-        <v>0.69062500000000004</v>
+        <v>0.70848214285714195</v>
       </c>
       <c r="G32">
-        <v>0.68883928571428499</v>
+        <v>0.72098214285714202</v>
       </c>
       <c r="H32">
         <v>0.64821428571428497</v>
@@ -3997,13 +3997,13 @@
         <v>0.72410714285714195</v>
       </c>
       <c r="E33">
-        <v>0.69062500000000004</v>
+        <v>0.72187500000000004</v>
       </c>
       <c r="F33">
-        <v>0.68080357142857095</v>
+        <v>0.70758928571428503</v>
       </c>
       <c r="G33">
-        <v>0.69196428571428503</v>
+        <v>0.72544642857142805</v>
       </c>
       <c r="H33">
         <v>0.65</v>
@@ -4029,13 +4029,13 @@
         <v>0.71696428571428505</v>
       </c>
       <c r="E34">
-        <v>0.68616071428571401</v>
+        <v>0.72321428571428503</v>
       </c>
       <c r="F34">
-        <v>0.67901785714285701</v>
+        <v>0.70535714285714202</v>
       </c>
       <c r="G34">
-        <v>0.67678571428571399</v>
+        <v>0.722321428571428</v>
       </c>
       <c r="H34">
         <v>0.64821428571428497</v>
@@ -4061,13 +4061,13 @@
         <v>0.71785714285714197</v>
       </c>
       <c r="E35">
-        <v>0.67321428571428499</v>
+        <v>0.72455357142857102</v>
       </c>
       <c r="F35">
-        <v>0.67946428571428497</v>
+        <v>0.70044642857142803</v>
       </c>
       <c r="G35">
-        <v>0.67767857142857102</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="H35">
         <v>0.64821428571428497</v>
@@ -4093,13 +4093,13 @@
         <v>0.71339285714285705</v>
       </c>
       <c r="E36">
-        <v>0.68080357142857095</v>
+        <v>0.72098214285714202</v>
       </c>
       <c r="F36">
-        <v>0.67991071428571404</v>
+        <v>0.7</v>
       </c>
       <c r="G36">
-        <v>0.67812499999999998</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="H36">
         <v>0.64821428571428497</v>
@@ -4125,13 +4125,13 @@
         <v>0.71205357142857095</v>
       </c>
       <c r="E37">
-        <v>0.67857142857142805</v>
+        <v>0.71875</v>
       </c>
       <c r="F37">
-        <v>0.67767857142857102</v>
+        <v>0.70133928571428505</v>
       </c>
       <c r="G37">
-        <v>0.68125000000000002</v>
+        <v>0.70937499999999998</v>
       </c>
       <c r="H37">
         <v>0.65178571428571397</v>
@@ -4157,13 +4157,13 @@
         <v>0.70089285714285698</v>
       </c>
       <c r="E38">
-        <v>0.67723214285714195</v>
+        <v>0.71473214285714204</v>
       </c>
       <c r="F38">
-        <v>0.68258928571428501</v>
+        <v>0.69419642857142805</v>
       </c>
       <c r="G38">
-        <v>0.67455357142857097</v>
+        <v>0.70580357142857097</v>
       </c>
       <c r="H38">
         <v>0.66071428571428503</v>
@@ -4189,13 +4189,13 @@
         <v>0.70803571428571399</v>
       </c>
       <c r="E39">
-        <v>0.675446428571428</v>
+        <v>0.71830357142857104</v>
       </c>
       <c r="F39">
-        <v>0.67633928571428503</v>
+        <v>0.69732142857142798</v>
       </c>
       <c r="G39">
-        <v>0.67723214285714195</v>
+        <v>0.71116071428571404</v>
       </c>
       <c r="H39">
         <v>0.65178571428571397</v>
@@ -4221,13 +4221,13 @@
         <v>0.70982142857142805</v>
       </c>
       <c r="E40">
-        <v>0.668303571428571</v>
+        <v>0.71651785714285698</v>
       </c>
       <c r="F40">
-        <v>0.66339285714285701</v>
+        <v>0.68883928571428499</v>
       </c>
       <c r="G40">
-        <v>0.67098214285714197</v>
+        <v>0.70758928571428503</v>
       </c>
       <c r="H40">
         <v>0.64776785714285701</v>
@@ -4253,13 +4253,13 @@
         <v>0.69598214285714199</v>
       </c>
       <c r="E41">
-        <v>0.668303571428571</v>
+        <v>0.71473214285714204</v>
       </c>
       <c r="F41">
-        <v>0.66562500000000002</v>
+        <v>0.68839285714285703</v>
       </c>
       <c r="G41">
-        <v>0.67410714285714202</v>
+        <v>0.69642857142857095</v>
       </c>
       <c r="H41">
         <v>0.64642857142857102</v>
@@ -4285,13 +4285,13 @@
         <v>0.70580357142857097</v>
       </c>
       <c r="E42">
-        <v>0.66562500000000002</v>
+        <v>0.71741071428571401</v>
       </c>
       <c r="F42">
-        <v>0.66607142857142798</v>
+        <v>0.69642857142857095</v>
       </c>
       <c r="G42">
-        <v>0.66116071428571399</v>
+        <v>0.70625000000000004</v>
       </c>
       <c r="H42">
         <v>0.64285714285714202</v>
@@ -4317,13 +4317,13 @@
         <v>0.70491071428571395</v>
       </c>
       <c r="E43">
-        <v>0.66785714285714204</v>
+        <v>0.71116071428571404</v>
       </c>
       <c r="F43">
-        <v>0.65714285714285703</v>
+        <v>0.69553571428571404</v>
       </c>
       <c r="G43">
-        <v>0.66428571428571404</v>
+        <v>0.70401785714285703</v>
       </c>
       <c r="H43">
         <v>0.64285714285714202</v>
@@ -4349,13 +4349,13 @@
         <v>0.68660714285714197</v>
       </c>
       <c r="E44">
-        <v>0.66383928571428497</v>
+        <v>0.70625000000000004</v>
       </c>
       <c r="F44">
-        <v>0.67321428571428499</v>
+        <v>0.67232142857142796</v>
       </c>
       <c r="G44">
-        <v>0.66696428571428501</v>
+        <v>0.69776785714285705</v>
       </c>
       <c r="H44">
         <v>0.64330357142857097</v>
@@ -4381,13 +4381,13 @@
         <v>0.69866071428571397</v>
       </c>
       <c r="E45">
-        <v>0.66383928571428497</v>
+        <v>0.70223214285714197</v>
       </c>
       <c r="F45">
-        <v>0.66160714285714195</v>
+        <v>0.68169642857142798</v>
       </c>
       <c r="G45">
-        <v>0.66473214285714199</v>
+        <v>0.69910714285714204</v>
       </c>
       <c r="H45">
         <v>0.64241071428571395</v>
@@ -4413,13 +4413,13 @@
         <v>0.7</v>
       </c>
       <c r="E46">
-        <v>0.66383928571428497</v>
+        <v>0.70133928571428505</v>
       </c>
       <c r="F46">
-        <v>0.65892857142857097</v>
+        <v>0.68303571428571397</v>
       </c>
       <c r="G46">
-        <v>0.66517857142857095</v>
+        <v>0.69910714285714204</v>
       </c>
       <c r="H46">
         <v>0.644196428571428</v>
@@ -4445,13 +4445,13 @@
         <v>0.7</v>
       </c>
       <c r="E47">
-        <v>0.66249999999999998</v>
+        <v>0.7</v>
       </c>
       <c r="F47">
-        <v>0.65357142857142803</v>
+        <v>0.67857142857142805</v>
       </c>
       <c r="G47">
-        <v>0.66562500000000002</v>
+        <v>0.7</v>
       </c>
       <c r="H47">
         <v>0.64464285714285696</v>
@@ -4477,13 +4477,13 @@
         <v>0.69821428571428501</v>
       </c>
       <c r="E48">
-        <v>0.65892857142857097</v>
+        <v>0.70267857142857104</v>
       </c>
       <c r="F48">
-        <v>0.65178571428571397</v>
+        <v>0.68839285714285703</v>
       </c>
       <c r="G48">
-        <v>0.66428571428571404</v>
+        <v>0.69866071428571397</v>
       </c>
       <c r="H48">
         <v>0.64508928571428503</v>
@@ -4509,13 +4509,13 @@
         <v>0.7</v>
       </c>
       <c r="E49">
-        <v>0.65937500000000004</v>
+        <v>0.69732142857142798</v>
       </c>
       <c r="F49">
-        <v>0.66785714285714204</v>
+        <v>0.69241071428571399</v>
       </c>
       <c r="G49">
-        <v>0.67232142857142796</v>
+        <v>0.70089285714285698</v>
       </c>
       <c r="H49">
         <v>0.644196428571428</v>
@@ -4541,13 +4541,13 @@
         <v>0.69821428571428501</v>
       </c>
       <c r="E50">
-        <v>0.65491071428571401</v>
+        <v>0.69285714285714195</v>
       </c>
       <c r="F50">
-        <v>0.66741071428571397</v>
+        <v>0.69151785714285696</v>
       </c>
       <c r="G50">
-        <v>0.671875</v>
+        <v>0.70044642857142803</v>
       </c>
       <c r="H50">
         <v>0.64598214285714195</v>
@@ -4573,13 +4573,13 @@
         <v>0.69910714285714204</v>
       </c>
       <c r="E51">
-        <v>0.65089285714285705</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="F51">
-        <v>0.65401785714285698</v>
+        <v>0.69553571428571404</v>
       </c>
       <c r="G51">
-        <v>0.671875</v>
+        <v>0.70089285714285698</v>
       </c>
       <c r="H51">
         <v>0.64642857142857102</v>
@@ -4605,13 +4605,13 @@
         <v>0.699553571428571</v>
       </c>
       <c r="E52">
-        <v>0.64687499999999998</v>
+        <v>0.68928571428571395</v>
       </c>
       <c r="F52">
-        <v>0.65714285714285703</v>
+        <v>0.69910714285714204</v>
       </c>
       <c r="G52">
-        <v>0.66205357142857102</v>
+        <v>0.69821428571428501</v>
       </c>
       <c r="H52">
         <v>0.64776785714285701</v>
@@ -4637,13 +4637,13 @@
         <v>0.699553571428571</v>
       </c>
       <c r="E53">
-        <v>0.64642857142857102</v>
+        <v>0.691071428571428</v>
       </c>
       <c r="F53">
-        <v>0.65625</v>
+        <v>0.68526785714285698</v>
       </c>
       <c r="G53">
-        <v>0.66562500000000002</v>
+        <v>0.69866071428571397</v>
       </c>
       <c r="H53">
         <v>0.64553571428571399</v>
@@ -4669,13 +4669,13 @@
         <v>0.703125</v>
       </c>
       <c r="E54">
-        <v>0.64553571428571399</v>
+        <v>0.69062500000000004</v>
       </c>
       <c r="F54">
-        <v>0.66562500000000002</v>
+        <v>0.69508928571428497</v>
       </c>
       <c r="G54">
-        <v>0.668303571428571</v>
+        <v>0.69285714285714195</v>
       </c>
       <c r="H54">
         <v>0.64776785714285701</v>
@@ -4701,13 +4701,13 @@
         <v>0.70089285714285698</v>
       </c>
       <c r="E55">
-        <v>0.64464285714285696</v>
+        <v>0.69017857142857097</v>
       </c>
       <c r="F55">
-        <v>0.66205357142857102</v>
+        <v>0.68214285714285705</v>
       </c>
       <c r="G55">
-        <v>0.66874999999999996</v>
+        <v>0.69687500000000002</v>
       </c>
       <c r="H55">
         <v>0.64821428571428497</v>
@@ -4733,13 +4733,13 @@
         <v>0.703125</v>
       </c>
       <c r="E56">
-        <v>0.64642857142857102</v>
+        <v>0.69196428571428503</v>
       </c>
       <c r="F56">
-        <v>0.65625</v>
+        <v>0.68348214285714204</v>
       </c>
       <c r="G56">
-        <v>0.66964285714285698</v>
+        <v>0.7</v>
       </c>
       <c r="H56">
         <v>0.64732142857142805</v>
@@ -4765,13 +4765,13 @@
         <v>0.70133928571428505</v>
       </c>
       <c r="E57">
-        <v>0.64598214285714195</v>
+        <v>0.69241071428571399</v>
       </c>
       <c r="F57">
-        <v>0.64910714285714199</v>
+        <v>0.69330357142857102</v>
       </c>
       <c r="G57">
-        <v>0.67053571428571401</v>
+        <v>0.70491071428571395</v>
       </c>
       <c r="H57">
         <v>0.64732142857142805</v>
@@ -4797,13 +4797,13 @@
         <v>0.69598214285714199</v>
       </c>
       <c r="E58">
-        <v>0.64687499999999998</v>
+        <v>0.69419642857142805</v>
       </c>
       <c r="F58">
-        <v>0.65758928571428499</v>
+        <v>0.69285714285714195</v>
       </c>
       <c r="G58">
-        <v>0.668303571428571</v>
+        <v>0.69910714285714204</v>
       </c>
       <c r="H58">
         <v>0.64910714285714199</v>
@@ -4829,13 +4829,13 @@
         <v>0.69241071428571399</v>
       </c>
       <c r="E59">
-        <v>0.64776785714285701</v>
+        <v>0.69151785714285696</v>
       </c>
       <c r="F59">
-        <v>0.65758928571428499</v>
+        <v>0.6875</v>
       </c>
       <c r="G59">
-        <v>0.65892857142857097</v>
+        <v>0.70401785714285703</v>
       </c>
       <c r="H59">
         <v>0.64955357142857095</v>
@@ -4861,13 +4861,13 @@
         <v>0.69553571428571404</v>
       </c>
       <c r="E60">
-        <v>0.64776785714285701</v>
+        <v>0.69062500000000004</v>
       </c>
       <c r="F60">
-        <v>0.66205357142857102</v>
+        <v>0.69553571428571404</v>
       </c>
       <c r="G60">
-        <v>0.668303571428571</v>
+        <v>0.69910714285714204</v>
       </c>
       <c r="H60">
         <v>0.65</v>
@@ -4893,13 +4893,13 @@
         <v>0.70044642857142803</v>
       </c>
       <c r="E61">
-        <v>0.65</v>
+        <v>0.69017857142857097</v>
       </c>
       <c r="F61">
-        <v>0.66071428571428503</v>
+        <v>0.67901785714285701</v>
       </c>
       <c r="G61">
-        <v>0.66339285714285701</v>
+        <v>0.7</v>
       </c>
       <c r="H61">
         <v>0.65446428571428505</v>
@@ -4925,13 +4925,13 @@
         <v>0.69464285714285701</v>
       </c>
       <c r="E62">
-        <v>0.64955357142857095</v>
+        <v>0.68883928571428499</v>
       </c>
       <c r="F62">
-        <v>0.65089285714285705</v>
+        <v>0.68258928571428501</v>
       </c>
       <c r="G62">
-        <v>0.66473214285714199</v>
+        <v>0.69062500000000004</v>
       </c>
       <c r="H62">
         <v>0.65312499999999996</v>
@@ -4957,13 +4957,13 @@
         <v>0.70178571428571401</v>
       </c>
       <c r="E63">
-        <v>0.65223214285714204</v>
+        <v>0.69017857142857097</v>
       </c>
       <c r="F63">
-        <v>0.66116071428571399</v>
+        <v>0.68839285714285703</v>
       </c>
       <c r="G63">
-        <v>0.66294642857142805</v>
+        <v>0.7</v>
       </c>
       <c r="H63">
         <v>0.65892857142857097</v>
@@ -4989,13 +4989,13 @@
         <v>0.69642857142857095</v>
       </c>
       <c r="E64">
-        <v>0.652678571428571</v>
+        <v>0.691071428571428</v>
       </c>
       <c r="F64">
-        <v>0.64330357142857097</v>
+        <v>0.691071428571428</v>
       </c>
       <c r="G64">
-        <v>0.66160714285714195</v>
+        <v>0.69419642857142805</v>
       </c>
       <c r="H64">
         <v>0.65758928571428499</v>
@@ -5021,13 +5021,13 @@
         <v>0.70044642857142803</v>
       </c>
       <c r="E65">
-        <v>0.65223214285714204</v>
+        <v>0.68883928571428499</v>
       </c>
       <c r="F65">
-        <v>0.64598214285714195</v>
+        <v>0.69910714285714204</v>
       </c>
       <c r="G65">
-        <v>0.65892857142857097</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="H65">
         <v>0.65580357142857104</v>
@@ -5053,13 +5053,13 @@
         <v>0.70044642857142803</v>
       </c>
       <c r="E66">
-        <v>0.65178571428571397</v>
+        <v>0.68794642857142796</v>
       </c>
       <c r="F66">
-        <v>0.65848214285714202</v>
+        <v>0.69419642857142805</v>
       </c>
       <c r="G66">
-        <v>0.67142857142857104</v>
+        <v>0.7</v>
       </c>
       <c r="H66">
         <v>0.65491071428571401</v>
@@ -5085,13 +5085,13 @@
         <v>0.69732142857142798</v>
       </c>
       <c r="E67">
-        <v>0.64955357142857095</v>
+        <v>0.68839285714285703</v>
       </c>
       <c r="F67">
-        <v>0.65937500000000004</v>
+        <v>0.69553571428571404</v>
       </c>
       <c r="G67">
-        <v>0.66071428571428503</v>
+        <v>0.69866071428571397</v>
       </c>
       <c r="H67">
         <v>0.65535714285714197</v>
@@ -5117,13 +5117,13 @@
         <v>0.69642857142857095</v>
       </c>
       <c r="E68">
-        <v>0.65</v>
+        <v>0.6875</v>
       </c>
       <c r="F68">
-        <v>0.659821428571428</v>
+        <v>0.699553571428571</v>
       </c>
       <c r="G68">
-        <v>0.671875</v>
+        <v>0.69017857142857097</v>
       </c>
       <c r="H68">
         <v>0.65535714285714197</v>
@@ -5149,13 +5149,13 @@
         <v>0.69598214285714199</v>
       </c>
       <c r="E69">
-        <v>0.65044642857142798</v>
+        <v>0.6875</v>
       </c>
       <c r="F69">
-        <v>0.66473214285714199</v>
+        <v>0.69062500000000004</v>
       </c>
       <c r="G69">
-        <v>0.66562500000000002</v>
+        <v>0.691071428571428</v>
       </c>
       <c r="H69">
         <v>0.65625</v>
@@ -5181,13 +5181,13 @@
         <v>0.699553571428571</v>
       </c>
       <c r="E70">
-        <v>0.65044642857142798</v>
+        <v>0.68839285714285703</v>
       </c>
       <c r="F70">
-        <v>0.64776785714285701</v>
+        <v>0.69598214285714199</v>
       </c>
       <c r="G70">
-        <v>0.65491071428571401</v>
+        <v>0.69508928571428497</v>
       </c>
       <c r="H70">
         <v>0.65625</v>
@@ -5213,13 +5213,13 @@
         <v>0.69598214285714199</v>
       </c>
       <c r="E71">
-        <v>0.65133928571428501</v>
+        <v>0.68705357142857104</v>
       </c>
       <c r="F71">
-        <v>0.66651785714285705</v>
+        <v>0.69464285714285701</v>
       </c>
       <c r="G71">
-        <v>0.66026785714285696</v>
+        <v>0.69866071428571397</v>
       </c>
       <c r="H71">
         <v>0.65535714285714197</v>
@@ -5245,13 +5245,13 @@
         <v>0.69419642857142805</v>
       </c>
       <c r="E72">
-        <v>0.65044642857142798</v>
+        <v>0.68660714285714197</v>
       </c>
       <c r="F72">
-        <v>0.65089285714285705</v>
+        <v>0.68571428571428505</v>
       </c>
       <c r="G72">
-        <v>0.65580357142857104</v>
+        <v>0.69464285714285701</v>
       </c>
       <c r="H72">
         <v>0.65714285714285703</v>
@@ -5277,13 +5277,13 @@
         <v>0.69642857142857095</v>
       </c>
       <c r="E73">
-        <v>0.65089285714285705</v>
+        <v>0.68571428571428505</v>
       </c>
       <c r="F73">
-        <v>0.66874999999999996</v>
+        <v>0.699553571428571</v>
       </c>
       <c r="G73">
-        <v>0.66785714285714204</v>
+        <v>0.69553571428571404</v>
       </c>
       <c r="H73">
         <v>0.65535714285714197</v>
@@ -5309,13 +5309,13 @@
         <v>0.69821428571428501</v>
       </c>
       <c r="E74">
-        <v>0.65044642857142798</v>
+        <v>0.68616071428571401</v>
       </c>
       <c r="F74">
-        <v>0.65803571428571395</v>
+        <v>0.69508928571428497</v>
       </c>
       <c r="G74">
-        <v>0.66562500000000002</v>
+        <v>0.70178571428571401</v>
       </c>
       <c r="H74">
         <v>0.65178571428571397</v>
@@ -5341,13 +5341,13 @@
         <v>0.69419642857142805</v>
       </c>
       <c r="E75">
-        <v>0.64955357142857095</v>
+        <v>0.68526785714285698</v>
       </c>
       <c r="F75">
-        <v>0.65446428571428505</v>
+        <v>0.69732142857142798</v>
       </c>
       <c r="G75">
-        <v>0.66741071428571397</v>
+        <v>0.68705357142857104</v>
       </c>
       <c r="H75">
         <v>0.65401785714285698</v>
@@ -5373,13 +5373,13 @@
         <v>0.69330357142857102</v>
       </c>
       <c r="E76">
-        <v>0.64866071428571404</v>
+        <v>0.68482142857142803</v>
       </c>
       <c r="F76">
-        <v>0.67098214285714197</v>
+        <v>0.69419642857142805</v>
       </c>
       <c r="G76">
-        <v>0.65758928571428499</v>
+        <v>0.69821428571428501</v>
       </c>
       <c r="H76">
         <v>0.65044642857142798</v>
@@ -5405,13 +5405,13 @@
         <v>0.69553571428571404</v>
       </c>
       <c r="E77">
-        <v>0.64821428571428497</v>
+        <v>0.68526785714285698</v>
       </c>
       <c r="F77">
-        <v>0.65669642857142796</v>
+        <v>0.69776785714285705</v>
       </c>
       <c r="G77">
-        <v>0.67008928571428505</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="H77">
         <v>0.65044642857142798</v>
@@ -5437,13 +5437,13 @@
         <v>0.699553571428571</v>
       </c>
       <c r="E78">
-        <v>0.64866071428571404</v>
+        <v>0.68839285714285703</v>
       </c>
       <c r="F78">
-        <v>0.67098214285714197</v>
+        <v>0.69464285714285701</v>
       </c>
       <c r="G78">
-        <v>0.67008928571428505</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="H78">
         <v>0.64955357142857095</v>
@@ -5469,13 +5469,13 @@
         <v>0.69732142857142798</v>
       </c>
       <c r="E79">
-        <v>0.64866071428571404</v>
+        <v>0.68705357142857104</v>
       </c>
       <c r="F79">
-        <v>0.66116071428571399</v>
+        <v>0.69508928571428497</v>
       </c>
       <c r="G79">
-        <v>0.66874999999999996</v>
+        <v>0.69464285714285701</v>
       </c>
       <c r="H79">
         <v>0.64955357142857095</v>
@@ -5501,13 +5501,13 @@
         <v>0.69374999999999998</v>
       </c>
       <c r="E80">
-        <v>0.64642857142857102</v>
+        <v>0.68660714285714197</v>
       </c>
       <c r="F80">
-        <v>0.66383928571428497</v>
+        <v>0.70089285714285698</v>
       </c>
       <c r="G80">
-        <v>0.66383928571428497</v>
+        <v>0.69017857142857097</v>
       </c>
       <c r="H80">
         <v>0.65</v>
@@ -5533,13 +5533,13 @@
         <v>0.70044642857142803</v>
       </c>
       <c r="E81">
-        <v>0.64687499999999998</v>
+        <v>0.68616071428571401</v>
       </c>
       <c r="F81">
-        <v>0.66607142857142798</v>
+        <v>0.69866071428571397</v>
       </c>
       <c r="G81">
-        <v>0.66919642857142803</v>
+        <v>0.69866071428571397</v>
       </c>
       <c r="H81">
         <v>0.64910714285714199</v>
@@ -5565,13 +5565,13 @@
         <v>0.69732142857142798</v>
       </c>
       <c r="E82">
-        <v>0.64642857142857102</v>
+        <v>0.6875</v>
       </c>
       <c r="F82">
-        <v>0.66517857142857095</v>
+        <v>0.69598214285714199</v>
       </c>
       <c r="G82">
-        <v>0.66249999999999998</v>
+        <v>0.69598214285714199</v>
       </c>
       <c r="H82">
         <v>0.65044642857142798</v>
@@ -5597,13 +5597,13 @@
         <v>0.69553571428571404</v>
       </c>
       <c r="E83">
-        <v>0.644196428571428</v>
+        <v>0.68839285714285703</v>
       </c>
       <c r="F83">
-        <v>0.66562500000000002</v>
+        <v>0.69598214285714199</v>
       </c>
       <c r="G83">
-        <v>0.67008928571428505</v>
+        <v>0.69910714285714204</v>
       </c>
       <c r="H83">
         <v>0.64955357142857095</v>
@@ -5629,13 +5629,13 @@
         <v>0.69642857142857095</v>
       </c>
       <c r="E84">
-        <v>0.64642857142857102</v>
+        <v>0.68705357142857104</v>
       </c>
       <c r="F84">
-        <v>0.66339285714285701</v>
+        <v>0.69241071428571399</v>
       </c>
       <c r="G84">
-        <v>0.67053571428571401</v>
+        <v>0.699553571428571</v>
       </c>
       <c r="H84">
         <v>0.65133928571428501</v>
@@ -5661,13 +5661,13 @@
         <v>0.69821428571428501</v>
       </c>
       <c r="E85">
-        <v>0.64776785714285701</v>
+        <v>0.68482142857142803</v>
       </c>
       <c r="F85">
-        <v>0.66160714285714195</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="G85">
-        <v>0.66517857142857095</v>
+        <v>0.69330357142857102</v>
       </c>
       <c r="H85">
         <v>0.64910714285714199</v>
@@ -5693,13 +5693,13 @@
         <v>0.70133928571428505</v>
       </c>
       <c r="E86">
-        <v>0.64687499999999998</v>
+        <v>0.68482142857142803</v>
       </c>
       <c r="F86">
-        <v>0.66874999999999996</v>
+        <v>0.69419642857142805</v>
       </c>
       <c r="G86">
-        <v>0.66964285714285698</v>
+        <v>0.69151785714285696</v>
       </c>
       <c r="H86">
         <v>0.64955357142857095</v>
@@ -5725,13 +5725,13 @@
         <v>0.69776785714285705</v>
       </c>
       <c r="E87">
-        <v>0.64732142857142805</v>
+        <v>0.68616071428571401</v>
       </c>
       <c r="F87">
-        <v>0.65714285714285703</v>
+        <v>0.69508928571428497</v>
       </c>
       <c r="G87">
-        <v>0.668303571428571</v>
+        <v>0.69687500000000002</v>
       </c>
       <c r="H87">
         <v>0.64955357142857095</v>
@@ -5757,13 +5757,13 @@
         <v>0.7</v>
       </c>
       <c r="E88">
-        <v>0.64642857142857102</v>
+        <v>0.68571428571428505</v>
       </c>
       <c r="F88">
-        <v>0.66785714285714204</v>
+        <v>0.69687500000000002</v>
       </c>
       <c r="G88">
-        <v>0.67455357142857097</v>
+        <v>0.69196428571428503</v>
       </c>
       <c r="H88">
         <v>0.64955357142857095</v>
@@ -5789,13 +5789,13 @@
         <v>0.69374999999999998</v>
       </c>
       <c r="E89">
-        <v>0.64598214285714195</v>
+        <v>0.68571428571428505</v>
       </c>
       <c r="F89">
-        <v>0.66919642857142803</v>
+        <v>0.69464285714285701</v>
       </c>
       <c r="G89">
-        <v>0.67008928571428505</v>
+        <v>0.69241071428571399</v>
       </c>
       <c r="H89">
         <v>0.64910714285714199</v>
@@ -5821,13 +5821,13 @@
         <v>0.69687500000000002</v>
       </c>
       <c r="E90">
-        <v>0.64642857142857102</v>
+        <v>0.68571428571428505</v>
       </c>
       <c r="F90">
-        <v>0.66249999999999998</v>
+        <v>0.69196428571428503</v>
       </c>
       <c r="G90">
-        <v>0.66741071428571397</v>
+        <v>0.69464285714285701</v>
       </c>
       <c r="H90">
         <v>0.65580357142857104</v>
@@ -5853,13 +5853,13 @@
         <v>0.69821428571428501</v>
       </c>
       <c r="E91">
-        <v>0.64508928571428503</v>
+        <v>0.68705357142857104</v>
       </c>
       <c r="F91">
-        <v>0.66071428571428503</v>
+        <v>0.69419642857142805</v>
       </c>
       <c r="G91">
-        <v>0.66249999999999998</v>
+        <v>0.69866071428571397</v>
       </c>
       <c r="H91">
         <v>0.65625</v>
@@ -5885,13 +5885,13 @@
         <v>0.69866071428571397</v>
       </c>
       <c r="E92">
-        <v>0.64464285714285696</v>
+        <v>0.68794642857142796</v>
       </c>
       <c r="F92">
-        <v>0.668303571428571</v>
+        <v>0.69776785714285705</v>
       </c>
       <c r="G92">
-        <v>0.66249999999999998</v>
+        <v>0.69821428571428501</v>
       </c>
       <c r="H92">
         <v>0.65580357142857104</v>
@@ -5917,13 +5917,13 @@
         <v>0.70535714285714202</v>
       </c>
       <c r="E93">
-        <v>0.64464285714285696</v>
+        <v>0.68526785714285698</v>
       </c>
       <c r="F93">
-        <v>0.66294642857142805</v>
+        <v>0.69687500000000002</v>
       </c>
       <c r="G93">
-        <v>0.65848214285714202</v>
+        <v>0.69776785714285705</v>
       </c>
       <c r="H93">
         <v>0.65357142857142803</v>
@@ -5949,13 +5949,13 @@
         <v>0.69687500000000002</v>
       </c>
       <c r="E94">
-        <v>0.64642857142857102</v>
+        <v>0.68348214285714204</v>
       </c>
       <c r="F94">
-        <v>0.65714285714285703</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="G94">
-        <v>0.65714285714285703</v>
+        <v>0.69598214285714199</v>
       </c>
       <c r="H94">
         <v>0.65491071428571401</v>
@@ -5981,13 +5981,13 @@
         <v>0.69776785714285705</v>
       </c>
       <c r="E95">
-        <v>0.64508928571428503</v>
+        <v>0.68348214285714204</v>
       </c>
       <c r="F95">
-        <v>0.66071428571428503</v>
+        <v>0.68883928571428499</v>
       </c>
       <c r="G95">
-        <v>0.66428571428571404</v>
+        <v>0.69241071428571399</v>
       </c>
       <c r="H95">
         <v>0.66116071428571399</v>
@@ -6013,13 +6013,13 @@
         <v>0.69642857142857095</v>
       </c>
       <c r="E96">
-        <v>0.64687499999999998</v>
+        <v>0.68169642857142798</v>
       </c>
       <c r="F96">
-        <v>0.65089285714285705</v>
+        <v>0.68839285714285703</v>
       </c>
       <c r="G96">
-        <v>0.659821428571428</v>
+        <v>0.69687500000000002</v>
       </c>
       <c r="H96">
         <v>0.67098214285714197</v>
@@ -6045,13 +6045,13 @@
         <v>0.69330357142857102</v>
       </c>
       <c r="E97">
-        <v>0.64642857142857102</v>
+        <v>0.68348214285714204</v>
       </c>
       <c r="F97">
-        <v>0.66383928571428497</v>
+        <v>0.69196428571428503</v>
       </c>
       <c r="G97">
-        <v>0.67232142857142796</v>
+        <v>0.69419642857142805</v>
       </c>
       <c r="H97">
         <v>0.67053571428571401</v>
@@ -6077,13 +6077,13 @@
         <v>0.70044642857142803</v>
       </c>
       <c r="E98">
-        <v>0.64687499999999998</v>
+        <v>0.68348214285714204</v>
       </c>
       <c r="F98">
-        <v>0.66562500000000002</v>
+        <v>0.69196428571428503</v>
       </c>
       <c r="G98">
-        <v>0.66294642857142805</v>
+        <v>0.70044642857142803</v>
       </c>
       <c r="H98">
         <v>0.67098214285714197</v>
@@ -6109,13 +6109,13 @@
         <v>0.69866071428571397</v>
       </c>
       <c r="E99">
-        <v>0.64687499999999998</v>
+        <v>0.68303571428571397</v>
       </c>
       <c r="F99">
-        <v>0.659821428571428</v>
+        <v>0.69285714285714195</v>
       </c>
       <c r="G99">
-        <v>0.67589285714285696</v>
+        <v>0.7</v>
       </c>
       <c r="H99">
         <v>0.67767857142857102</v>
@@ -6141,13 +6141,13 @@
         <v>0.69151785714285696</v>
       </c>
       <c r="E100">
-        <v>0.64508928571428503</v>
+        <v>0.67812499999999998</v>
       </c>
       <c r="F100">
-        <v>0.66116071428571399</v>
+        <v>0.69464285714285701</v>
       </c>
       <c r="G100">
-        <v>0.66562500000000002</v>
+        <v>0.69285714285714195</v>
       </c>
       <c r="H100">
         <v>0.67812499999999998</v>
@@ -6173,13 +6173,13 @@
         <v>0.69776785714285705</v>
       </c>
       <c r="E101">
-        <v>0.64776785714285701</v>
+        <v>0.68035714285714199</v>
       </c>
       <c r="F101">
-        <v>0.65937500000000004</v>
+        <v>0.68616071428571401</v>
       </c>
       <c r="G101">
-        <v>0.66026785714285696</v>
+        <v>0.69285714285714195</v>
       </c>
       <c r="H101">
         <v>0.68214285714285705</v>
@@ -6200,8 +6200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C31:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6214,27 +6214,27 @@
   <sheetData>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
         <v>10</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/AmazoneTest/report/summary.xlsx
+++ b/AmazoneTest/report/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18240" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18240" windowHeight="8505" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="sum" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="גיליון2" sheetId="3" r:id="rId3"/>
     <sheet name="גיליון5" sheetId="6" r:id="rId4"/>
     <sheet name="גיליון6" sheetId="7" r:id="rId5"/>
+    <sheet name="גיליון3" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="136">
   <si>
     <t>#features</t>
   </si>
@@ -39,27 +40,6 @@
   </si>
   <si>
     <t>ReliefF_hyperbolic_svm</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>candidate1</t>
-  </si>
-  <si>
-    <t>candidate2</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>wilcoxon</t>
-  </si>
-  <si>
-    <t>symm_naive_bayes</t>
-  </si>
-  <si>
-    <t>information_gain_naive_bayes</t>
   </si>
   <si>
     <t>info_gain_naive_bayse</t>
@@ -420,6 +400,33 @@
   </si>
   <si>
     <t>pca_hyperbolic_svm</t>
+  </si>
+  <si>
+    <t>new_range_ig_naive_bayse</t>
+  </si>
+  <si>
+    <t>new_range_ig_linear_svm</t>
+  </si>
+  <si>
+    <t>new_range_ig_hyperbolic_svm</t>
+  </si>
+  <si>
+    <t>new_stochastic_linear_svm</t>
+  </si>
+  <si>
+    <t>new_stochastic_hyperbolic_svm</t>
+  </si>
+  <si>
+    <t>new_stochastic_naive_bayse</t>
+  </si>
+  <si>
+    <t>relieff avg</t>
+  </si>
+  <si>
+    <t>symm avg</t>
+  </si>
+  <si>
+    <t>ig avg</t>
   </si>
 </sst>
 </file>
@@ -975,6 +982,34 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="he-IL"/>
+              <a:t>בוחרי</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="he-IL" baseline="0"/>
+              <a:t> מאפיינים חמדנים - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Naive Bayse</a:t>
+            </a:r>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -982,10 +1017,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.3599117954121915E-2"/>
+          <c:x val="7.0599733198788803E-2"/>
           <c:y val="2.5083847759253559E-2"/>
-          <c:w val="0.73613259309129109"/>
-          <c:h val="0.91023172382781758"/>
+          <c:w val="0.71913197362557335"/>
+          <c:h val="0.83156573033460912"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -995,15 +1030,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>sum!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>symm_naive_bayse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Symm</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -1634,15 +1661,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>sum!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>info_gain_naive_bayse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Information Gain</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -2908,26 +2927,46 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="73418240"/>
-        <c:axId val="73446528"/>
+        <c:axId val="30205824"/>
+        <c:axId val="30207360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73418240"/>
+        <c:axId val="30205824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#features</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73446528"/>
+        <c:crossAx val="30207360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73446528"/>
+        <c:axId val="30207360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.55000000000000004"/>
@@ -2935,11 +2974,31 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73418240"/>
+        <c:crossAx val="30205824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2962,6 +3021,4160 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="he-IL"/>
+              <a:t>בוחרי</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="he-IL" baseline="0"/>
+              <a:t> מאפיינים חמדנים - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Linear SVM</a:t>
+            </a:r>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:tint val="66000"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent1">
+                <a:tint val="44500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:tint val="23500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0599733198788803E-2"/>
+          <c:y val="2.5083847759253559E-2"/>
+          <c:w val="0.71913197362557335"/>
+          <c:h val="0.83156573033460912"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Symm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>sum!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3120</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3720</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3960</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4320</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4440</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4560</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4680</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4920</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5040</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5160</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5280</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5520</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5640</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5760</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5880</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6120</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6240</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6480</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6720</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6840</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6960</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7080</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7320</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7440</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7560</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7680</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7920</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8040</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8160</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8280</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8520</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8640</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8760</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9120</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9240</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9360</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9480</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9720</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9840</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9960</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10080</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10320</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10440</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10560</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10680</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10920</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>11040</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11160</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11280</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11520</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>11640</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>11760</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11880</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>12000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sum!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.66383928571428497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68080357142857095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67901785714285701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68705357142857104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69866071428571397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70044642857142803</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70625000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69464285714285701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70848214285714195</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69508928571428497</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71964285714285703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70491071428571395</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70491071428571395</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.70580357142857097</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70446428571428499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.70803571428571399</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70803571428571399</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.71160714285714199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.70580357142857097</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.69732142857142798</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.70892857142857102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.70625000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.70714285714285696</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.69642857142857095</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.70758928571428503</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.706696428571428</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.70267857142857104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.70714285714285696</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.71383928571428501</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.70892857142857102</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.70848214285714195</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.70758928571428503</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.70535714285714202</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70044642857142803</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.70133928571428505</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.69419642857142805</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.69196428571428503</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.70133928571428505</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.69866071428571397</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.68973214285714202</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.68125000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.69285714285714195</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.67455357142857097</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.68303571428571397</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.69419642857142805</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.70044642857142803</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.691071428571428</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.69017857142857097</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.67678571428571399</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.69732142857142798</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.68571428571428505</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.68214285714285705</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.69330357142857102</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.69285714285714195</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.69464285714285701</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.68660714285714197</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.68571428571428505</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.69017857142857097</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.67901785714285701</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.68258928571428501</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.68839285714285703</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.68660714285714197</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.68571428571428505</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.69776785714285705</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68660714285714197</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.691071428571428</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69285714285714195</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.691071428571428</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.68839285714285703</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.69508928571428497</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.69062500000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.69732142857142798</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.69419642857142805</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.69732142857142798</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.69910714285714204</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.69687500000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.69732142857142798</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.69598214285714199</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.69821428571428501</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.69553571428571404</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.69374999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.69598214285714199</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.69642857142857095</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.69642857142857095</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.69464285714285701</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.69508928571428497</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.69732142857142798</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.69464285714285701</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.69732142857142798</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.69241071428571399</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.691071428571428</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.69151785714285696</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.68973214285714202</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.68928571428571395</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.69017857142857097</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.69017857142857097</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.68348214285714204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Information Gain</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>sum!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3120</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3720</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3960</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4320</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4440</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4560</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4680</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4920</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5040</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5160</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5280</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5520</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5640</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5760</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5880</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6120</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6240</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6480</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6720</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6840</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6960</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7080</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7320</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7440</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7560</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7680</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7920</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8040</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8160</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8280</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8520</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8640</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8760</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9120</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9240</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9360</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9480</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9720</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9840</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9960</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10080</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10320</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10440</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10560</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10680</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10920</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>11040</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11160</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11280</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11520</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>11640</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>11760</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11880</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>12000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sum!$F$2:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.66562500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67678571428571399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69687500000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70401785714285703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.706696428571428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70401785714285703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.703125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70357142857142796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70580357142857097</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.70848214285714195</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.706696428571428</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.71160714285714199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.71116071428571404</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70446428571428499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.70803571428571399</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.71294642857142798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.71160714285714199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.70580357142857097</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.70491071428571395</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.70580357142857097</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.70625000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.70625000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.70758928571428503</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.70758928571428503</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.706696428571428</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.70758928571428503</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.70714285714285696</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.71383928571428501</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.70892857142857102</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.70848214285714195</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.70758928571428503</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.70535714285714202</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70044642857142803</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.70133928571428505</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.69419642857142805</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.69732142857142798</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.68883928571428499</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.68839285714285703</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.69642857142857095</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.69553571428571404</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.67232142857142796</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.68169642857142798</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.68303571428571397</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.67857142857142805</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.68839285714285703</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.69241071428571399</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.69151785714285696</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.69553571428571404</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.69910714285714204</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.68526785714285698</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.69508928571428497</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.68214285714285705</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.68348214285714204</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.69330357142857102</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.69285714285714195</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.69553571428571404</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.67901785714285701</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.68258928571428501</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.68839285714285703</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.691071428571428</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.69910714285714204</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.69419642857142805</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.69553571428571404</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.699553571428571</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.69062500000000004</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69598214285714199</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69464285714285701</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.68571428571428505</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.699553571428571</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.69508928571428497</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.69732142857142798</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.69419642857142805</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.69776785714285705</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.69464285714285701</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.69508928571428497</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.70089285714285698</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.69866071428571397</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.69598214285714199</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.69598214285714199</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.69241071428571399</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.69374999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.69419642857142805</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.69508928571428497</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.69687500000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.69464285714285701</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.69196428571428503</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.69419642857142805</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.69776785714285705</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.69687500000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.69374999999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.68883928571428499</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.68839285714285703</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.69196428571428503</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.69196428571428503</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.69285714285714195</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.69464285714285701</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.68616071428571401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ReliefF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>sum!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3120</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3720</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3960</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4320</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4440</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4560</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4680</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4920</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5040</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5160</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5280</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5520</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5640</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5760</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5880</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6120</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6240</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6480</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6720</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6840</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6960</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7080</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7320</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7440</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7560</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7680</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7920</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8040</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8160</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8280</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8520</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8640</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8760</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9120</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9240</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9360</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9480</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9720</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9840</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9960</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10080</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10320</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10440</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10560</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10680</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10920</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>11040</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11160</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11280</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11520</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>11640</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>11760</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11880</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>12000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sum!$I$2:$I$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.59598214285714202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59642857142857097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61071428571428499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61651785714285701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61741071428571404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63660714285714204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65089285714285705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65089285714285705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65133928571428501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65133928571428501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64732142857142805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.64285714285714202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64285714285714202</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.64642857142857102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.65089285714285705</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.64241071428571395</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.65312499999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.64776785714285701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.644196428571428</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.652678571428571</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65044642857142798</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65357142857142803</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66696428571428501</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.65133928571428501</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65133928571428501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.65178571428571397</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65178571428571397</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.65178571428571397</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.65401785714285698</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65401785714285698</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.65312499999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66473214285714199</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.65892857142857097</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.65758928571428499</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.659821428571428</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.66071428571428503</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.659821428571428</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.65758928571428499</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.65714285714285703</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.65803571428571395</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.66116071428571399</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.66651785714285705</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.66383928571428497</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.668303571428571</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.66339285714285701</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.66874999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.66785714285714204</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.66339285714285701</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.66160714285714195</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.66205357142857102</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.65892857142857097</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.66249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.65580357142857104</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.659821428571428</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.66696428571428501</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.66696428571428501</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.66607142857142798</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.66785714285714204</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.67053571428571401</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.67901785714285701</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.68125000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.68125000000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.68303571428571397</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.67946428571428497</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.68303571428571397</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.67901785714285701</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68437499999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.67991071428571404</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.68883928571428499</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.68348214285714204</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.68214285714285705</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.68035714285714199</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.683928571428571</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.68258928571428501</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.68616071428571401</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.68526785714285698</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.68616071428571401</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.67946428571428497</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.67633928571428503</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.67589285714285696</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.67857142857142805</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.67946428571428497</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.68660714285714197</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.68482142857142803</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.68794642857142796</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.68794642857142796</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.68482142857142803</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.68928571428571395</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.68125000000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.68660714285714197</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.68526785714285698</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.68616071428571401</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.68571428571428505</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.683928571428571</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.68214285714285705</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.68616071428571401</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.68437499999999996</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.69598214285714199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="119608064"/>
+        <c:axId val="119609984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="119608064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#features</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119609984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="119609984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.55000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119608064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="he-IL"/>
+              <a:t>בוחרי</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="he-IL" baseline="0"/>
+              <a:t> מאפיינים חמדנים - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Linear SVM</a:t>
+            </a:r>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:tint val="66000"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent1">
+                <a:tint val="44500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:tint val="23500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0599733198788803E-2"/>
+          <c:y val="2.5083847759253559E-2"/>
+          <c:w val="0.71913197362557335"/>
+          <c:h val="0.83156573033460912"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Symm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>sum!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3120</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3720</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3960</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4320</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4440</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4560</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4680</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4920</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5040</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5160</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5280</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5520</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5640</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5760</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5880</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6120</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6240</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6480</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6720</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6840</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6960</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7080</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7320</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7440</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7560</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7680</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7920</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8040</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8160</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8280</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8520</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8640</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8760</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9120</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9240</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9360</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9480</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9720</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9840</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9960</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10080</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10320</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10440</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10560</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10680</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10920</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>11040</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11160</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11280</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11520</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>11640</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>11760</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11880</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>12000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sum!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.67098214285714197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.675446428571428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68839285714285703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70446428571428499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71339285714285705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72366071428571399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72455357142857102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.722321428571428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71741071428571401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72410714285714195</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72053571428571395</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.72410714285714195</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.72053571428571395</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.71919642857142796</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.72053571428571395</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.72321428571428503</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72187500000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72321428571428503</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72321428571428503</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.72142857142857097</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.72410714285714195</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.72321428571428503</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.71919642857142796</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.722321428571428</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.71964285714285703</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.72187500000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.72276785714285696</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72142857142857097</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.722321428571428</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.72098214285714202</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.72410714285714195</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.71696428571428505</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.71785714285714197</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.71339285714285705</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.71205357142857095</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.70089285714285698</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.70803571428571399</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.70982142857142805</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.69598214285714199</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.70580357142857097</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.70491071428571395</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.68660714285714197</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.69866071428571397</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.69821428571428501</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.69821428571428501</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.69910714285714204</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.699553571428571</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.699553571428571</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.703125</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.70089285714285698</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.703125</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.70133928571428505</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.69598214285714199</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.69241071428571399</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.69553571428571404</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.70044642857142803</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.69464285714285701</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.70178571428571401</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.69642857142857095</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.70044642857142803</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.70044642857142803</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.69732142857142798</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.69642857142857095</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.69598214285714199</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.699553571428571</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69598214285714199</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.69419642857142805</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.69642857142857095</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.69821428571428501</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.69419642857142805</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.69330357142857102</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.69553571428571404</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.699553571428571</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.69732142857142798</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.69374999999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.70044642857142803</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.69732142857142798</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.69553571428571404</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.69642857142857095</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.69821428571428501</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.70133928571428505</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.69776785714285705</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.69374999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.69687500000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.69821428571428501</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.69866071428571397</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.70535714285714202</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.69687500000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.69776785714285705</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.69642857142857095</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.69330357142857102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.70044642857142803</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.69866071428571397</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.69151785714285696</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.69776785714285705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Information Gain</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>sum!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3120</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3720</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3960</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4320</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4440</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4560</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4680</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4920</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5040</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5160</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5280</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5520</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5640</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5760</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5880</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6120</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6240</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6480</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6720</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6840</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6960</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7080</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7320</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7440</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7560</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7680</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7920</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8040</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8160</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8280</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8520</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8640</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8760</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9120</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9240</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9360</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9480</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9720</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9840</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9960</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10080</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10320</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10440</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10560</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10680</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10920</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>11040</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11160</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11280</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11520</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>11640</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>11760</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11880</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>12000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sum!$G$2:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.66562500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68705357142857104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67633928571428503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70178571428571401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71294642857142798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72142857142857097</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72053571428571395</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72008928571428499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72321428571428503</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71741071428571401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72276785714285696</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72276785714285696</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.722321428571428</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.71696428571428505</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72142857142857097</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.722321428571428</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.71741071428571401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72053571428571395</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72321428571428503</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72142857142857097</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.72276785714285696</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.722321428571428</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.72142857142857097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72187500000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.722321428571428</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.71964285714285703</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.72321428571428503</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.72321428571428503</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72276785714285696</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.72455357142857102</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.72098214285714202</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.72544642857142805</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.722321428571428</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.71428571428571397</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.71250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.70937499999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.70580357142857097</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.71116071428571404</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.70758928571428503</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.69642857142857095</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.70625000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.70401785714285703</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.69776785714285705</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.69910714285714204</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.69910714285714204</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.69866071428571397</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.70089285714285698</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.70044642857142803</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.70089285714285698</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.69821428571428501</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.69866071428571397</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.69285714285714195</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.69687500000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.70491071428571395</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.69910714285714204</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.70401785714285703</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.69910714285714204</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.69062500000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.69419642857142805</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.69374999999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.69866071428571397</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.69017857142857097</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.691071428571428</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69508928571428497</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69866071428571397</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.69464285714285701</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.69553571428571404</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.70178571428571401</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.68705357142857104</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.69821428571428501</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.69374999999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.69374999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.69464285714285701</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.69017857142857097</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.69866071428571397</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.69598214285714199</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.69910714285714204</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.699553571428571</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.69330357142857102</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.69151785714285696</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.69687500000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.69196428571428503</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.69241071428571399</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.69464285714285701</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.69866071428571397</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.69821428571428501</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.69776785714285705</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.69598214285714199</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.69241071428571399</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.69687500000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.69419642857142805</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.70044642857142803</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.69285714285714195</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.69285714285714195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ReliefF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>sum!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3120</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3720</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3960</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4320</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4440</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4560</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4680</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4920</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5040</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5160</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5280</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5520</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5640</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5760</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5880</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6120</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6240</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6480</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6720</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6840</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6960</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7080</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7320</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7440</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7560</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7680</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7920</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8040</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8160</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8280</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8520</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8640</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8760</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9120</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9240</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9360</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9480</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9720</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9840</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9960</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10080</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10320</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10440</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10560</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10680</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10920</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>11040</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11160</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11280</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11520</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>11640</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>11760</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11880</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>12000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sum!$J$2:$J$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.59330357142857104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61517857142857102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62455357142857104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.637053571428571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64285714285714202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65223214285714204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65758928571428499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65446428571428505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65892857142857097</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65714285714285703</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65714285714285703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66026785714285696</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66294642857142805</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66071428571428503</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66339285714285701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66160714285714195</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66294642857142805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66339285714285701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66785714285714204</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67098214285714197</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67142857142857104</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.671875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67678571428571399</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.67633928571428503</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.67767857142857102</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66964285714285698</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.67723214285714195</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.67857142857142805</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.67589285714285696</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.67723214285714195</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66562500000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.671875</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.68214285714285705</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.67633928571428503</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.68169642857142798</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.67455357142857097</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.66964285714285698</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.67723214285714195</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.67991071428571404</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.68169642857142798</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.67410714285714202</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.67321428571428499</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.68080357142857095</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.67678571428571399</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.68348214285714204</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.67053571428571401</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.67455357142857097</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.66964285714285698</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.67901785714285701</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.67633928571428503</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.67991071428571404</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.67857142857142805</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.68035714285714199</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.68125000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.68303571428571397</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.68705357142857104</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.68258928571428501</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.68660714285714197</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.68705357142857104</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.68571428571428505</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.69017857142857097</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.68303571428571397</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68883928571428499</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.683928571428571</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.69062500000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.69017857142857097</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.68526785714285698</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.68839285714285703</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.68482142857142803</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.68705357142857104</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.68839285714285703</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.68571428571428505</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.68258928571428501</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.68437499999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.68660714285714197</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.68258928571428501</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.68437499999999996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.68526785714285698</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.68303571428571397</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.68348214285714204</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.68616071428571401</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.68705357142857104</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.68973214285714202</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.68973214285714202</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.68303571428571397</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.68258928571428501</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.68571428571428505</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.69508928571428497</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.69910714285714204</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.69241071428571399</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.69821428571428501</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.70044642857142803</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.70089285714285698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="120412800"/>
+        <c:axId val="120427264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="120412800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#features</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120427264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="120427264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.55000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120412800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4959,11 +9172,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71585792"/>
-        <c:axId val="72033408"/>
+        <c:axId val="92682880"/>
+        <c:axId val="92701440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71585792"/>
+        <c:axId val="92682880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4992,12 +9205,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72033408"/>
+        <c:crossAx val="92701440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72033408"/>
+        <c:axId val="92701440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5029,7 +9242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71585792"/>
+        <c:crossAx val="92682880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5055,7 +9268,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7053,11 +11266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="121848576"/>
-        <c:axId val="121850880"/>
+        <c:axId val="93209344"/>
+        <c:axId val="93211264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121848576"/>
+        <c:axId val="93209344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7086,12 +11299,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121850880"/>
+        <c:crossAx val="93211264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121850880"/>
+        <c:axId val="93211264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7123,7 +11336,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121848576"/>
+        <c:crossAx val="93209344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7149,20 +11362,2360 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="he-IL" baseline="0"/>
+              <a:t>בוחרי מאפיינים - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Naive Bayse</a:t>
+            </a:r>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0599733198788803E-2"/>
+          <c:y val="2.5083847759253559E-2"/>
+          <c:w val="0.71913197362557335"/>
+          <c:h val="0.83156573033460912"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Stochastic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון6!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4396</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3277</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4621</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4721</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6208</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6382</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8247</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8422</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10512</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון6!$H$2:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.52053571428571399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56562500000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60178571428571404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62008928571428501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63526785714285705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61428571428571399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63482142857142798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64330357142857097</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63035714285714195</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63348214285714199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.640625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.64107142857142796</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65089285714285705</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.64955357142857095</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64866071428571404</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65937500000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.65758928571428499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66071428571428503</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67142857142857104</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67410714285714202</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.668303571428571</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.67767857142857102</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66517857142857095</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.68303571428571397</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.68526785714285698</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.67008928571428505</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.67321428571428499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68035714285714199</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.67410714285714202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Information Gain</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון6!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4396</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3277</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4621</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4721</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6208</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6382</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8247</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8422</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10512</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון6!$E:$E</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71696428571428505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68794642857142796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70446428571428499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.691071428571428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69419642857142805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69553571428571404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69598214285714199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69151785714285696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69017857142857097</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67455357142857097</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.68214285714285705</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67901785714285701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.668303571428571</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66696428571428501</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.64866071428571404</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.64687499999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.64642857142857102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64553571428571399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.64508928571428503</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.64955357142857095</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65089285714285705</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.65089285714285705</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.65133928571428501</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65044642857142798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.64687499999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.64687499999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.64776785714285701</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.64642857142857102</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.64642857142857102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Restricted PCA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון6!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4396</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3277</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4621</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4721</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6208</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6382</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8247</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8422</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10512</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון6!$B$2:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.36651785714285701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38794642857142803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59062499999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57857142857142796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37812499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57946428571428499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60401785714285705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35625000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57857142857142796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57857142857142796</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58035714285714202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62366071428571401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57901785714285703</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.57633928571428505</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.581696428571428</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57633928571428505</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.57410714285714204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56651785714285696</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.56964285714285701</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.59196428571428505</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.63124999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.58526785714285701</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.581696428571428</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.58035714285714202</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.59107142857142803</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.58482142857142805</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58035714285714202</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.58035714285714202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="109623552"/>
+        <c:axId val="113337088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="109623552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#features</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113337088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="113337088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.55000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109623552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80010656154451554"/>
+          <c:y val="0.42420325181427687"/>
+          <c:w val="0.18783165935256421"/>
+          <c:h val="0.26057530541592056"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="he-IL" baseline="0"/>
+              <a:t>בוחרי מאפיינים - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>linear SVM</a:t>
+            </a:r>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0599733198788803E-2"/>
+          <c:y val="2.5083847759253559E-2"/>
+          <c:w val="0.71913197362557335"/>
+          <c:h val="0.83156573033460912"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Stochastic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון6!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4396</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3277</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4621</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4721</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6208</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6382</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8247</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8422</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10512</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון6!$I$2:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.52946428571428505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54285714285714204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60133928571428497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63348214285714199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62723214285714202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60312500000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.612946428571428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.640625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64196428571428499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65089285714285705</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65446428571428505</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65803571428571395</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66339285714285701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66874999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.67142857142857104</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.64642857142857102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67232142857142796</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67857142857142805</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67723214285714195</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68035714285714199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.68035714285714199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.68794642857142796</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.68303571428571397</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.683928571428571</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.70089285714285698</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.69821428571428501</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.69374999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.67455357142857097</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.691071428571428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Information Gain</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון6!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4396</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3277</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4621</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4721</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6208</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6382</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8247</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8422</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10512</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון6!$F$2:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.70982142857142805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68616071428571401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69910714285714204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69598214285714199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68258928571428501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69151785714285696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67857142857142805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69598214285714199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67991071428571404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67455357142857097</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67633928571428503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67857142857142805</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67723214285714195</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66383928571428497</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66517857142857095</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66383928571428497</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66428571428571404</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.65758928571428499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.65803571428571395</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.659821428571428</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65401785714285698</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65446428571428505</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.65714285714285703</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.66651785714285705</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.66473214285714199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.66160714285714195</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.66383928571428497</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.66517857142857095</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.65848214285714202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Restricted PCA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון6!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4396</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3277</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4621</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4721</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6208</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6382</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8247</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8422</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10512</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון6!$C$2:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.63169642857142805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61964285714285705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53705357142857102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.354017857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60312500000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60178571428571404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60624999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61607142857142805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60133928571428497</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60535714285714204</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62187499999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63303571428571404</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64107142857142796</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.63124999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.62410714285714197</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.63660714285714204</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.63392857142857095</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.637053571428571</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.62232142857142803</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.63392857142857095</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.63482142857142798</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.63928571428571401</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.62633928571428499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.62232142857142803</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.64151785714285703</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.63392857142857095</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.63571428571428501</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.63928571428571401</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.62232142857142803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="114571520"/>
+        <c:axId val="114585984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="114571520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#features</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114585984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="114585984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.55000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114571520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80010656154451554"/>
+          <c:y val="0.42420325181427687"/>
+          <c:w val="0.18783165935256421"/>
+          <c:h val="0.26057530541592056"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="he-IL" baseline="0"/>
+              <a:t>בוחרי מאפיינים - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Gaussian SVM</a:t>
+            </a:r>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0599733198788803E-2"/>
+          <c:y val="2.5083847759253559E-2"/>
+          <c:w val="0.71913197362557335"/>
+          <c:h val="0.83156573033460912"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Stochastic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון6!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4396</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3277</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4621</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4721</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6208</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6382</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8247</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8422</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10512</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון6!$J$2:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.54821428571428499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57321428571428501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60223214285714199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62812500000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61964285714285705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63660714285714204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61428571428571399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63437500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65401785714285698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65223214285714204</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67633928571428503</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67366071428571395</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66874999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.67366071428571395</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66607142857142798</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67366071428571395</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66964285714285698</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66071428571428503</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67410714285714202</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.70089285714285698</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.68571428571428505</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.67991071428571404</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.68526785714285698</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.68303571428571397</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.67946428571428497</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.69062500000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.67991071428571404</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.68973214285714202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Information Gain</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון6!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4396</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3277</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4621</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4721</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6208</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6382</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8247</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8422</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10512</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון6!$G$2:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.69642857142857095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68705357142857104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69776785714285705</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69419642857142805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68660714285714197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69866071428571397</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68482142857142803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68348214285714204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69017857142857097</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.671875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67008928571428505</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67901785714285701</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65669642857142796</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66116071428571399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.67098214285714197</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.659821428571428</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66785714285714204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66964285714285698</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67098214285714197</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.66026785714285696</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.66294642857142805</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66696428571428501</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.67142857142857104</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.66651785714285705</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.67008928571428505</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.65848214285714202</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.66339285714285701</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.67098214285714197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66562500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Restricted PCA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון6!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4396</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3277</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4621</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4721</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6208</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6382</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8247</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8422</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10512</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון6!$D$2:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.65714285714285703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63526785714285705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61607142857142805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55133928571428503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61696428571428497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62232142857142803</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55089285714285696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63526785714285705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63214285714285701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63437500000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64508928571428503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62678571428571395</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64107142857142796</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.64687499999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.63616071428571397</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.64598214285714195</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.63482142857142798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.63749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64330357142857097</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.64241071428571395</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.63883928571428505</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.63035714285714195</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.64196428571428499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.63348214285714199</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.628571428571428</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.63749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.63303571428571404</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.63794642857142803</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.63749999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="118460416"/>
+        <c:axId val="118462336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="118460416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#features</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="118462336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="118462336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.55000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="118460416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80010656154451554"/>
+          <c:y val="0.42420325181427687"/>
+          <c:w val="0.18783165935256421"/>
+          <c:h val="0.26057530541592056"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>327932</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>163284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7178,6 +13731,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>393246</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="תרשים 2" title="Naive Bayes - Comparing Feature Selection Methods"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>80282</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="תרשים 3" title="Naive Bayes - Comparing Feature Selection Methods"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7247,6 +13864,107 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="תרשים 1" title="Naive Bayes - Comparing Feature Selection Methods"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>236444</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113180</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="תרשים 3" title="Naive Bayes - Comparing Feature Selection Methods"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>212913</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>146798</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>79562</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="תרשים 4" title="Naive Bayes - Comparing Feature Selection Methods"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7544,7 +14262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -7579,13 +14297,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -10804,10 +17522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C31:F32"/>
+  <dimension ref="C28:D30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10818,29 +17536,31 @@
     <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28">
+        <f>AVERAGEA(sum!H2:J101)</f>
+        <v>0.66375000000000017</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29">
+        <f>AVERAGEA(sum!B2:D101)</f>
+        <v>0.70194196428571398</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30">
+        <f>AVERAGEA(sum!E2:G101)</f>
+        <v>0.70202232142857091</v>
       </c>
     </row>
   </sheetData>
@@ -10864,322 +17584,322 @@
   <sheetData>
     <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" t="s">
+      <c r="T1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" t="s">
+      <c r="U1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
         <v>31</v>
       </c>
-      <c r="P1" t="s">
+      <c r="W1" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="X1" t="s">
         <v>33</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Y1" t="s">
         <v>34</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Z1" t="s">
         <v>35</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AA1" t="s">
         <v>36</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AB1" t="s">
         <v>37</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AC1" t="s">
         <v>38</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AD1" t="s">
         <v>39</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AE1" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AF1" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AG1" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AH1" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AI1" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AJ1" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AK1" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AL1" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AM1" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AN1" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AO1" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AP1" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AQ1" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AR1" t="s">
         <v>53</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AS1" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AT1" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AU1" t="s">
         <v>56</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AV1" t="s">
         <v>57</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AW1" t="s">
         <v>58</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AX1" t="s">
         <v>59</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AY1" t="s">
         <v>60</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AZ1" t="s">
         <v>61</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BA1" t="s">
         <v>62</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BB1" t="s">
         <v>63</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BC1" t="s">
         <v>64</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BD1" t="s">
         <v>65</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BE1" t="s">
         <v>66</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BF1" t="s">
         <v>67</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BG1" t="s">
         <v>68</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BH1" t="s">
         <v>69</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BI1" t="s">
         <v>70</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BJ1" t="s">
         <v>71</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BK1" t="s">
         <v>72</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BL1" t="s">
         <v>73</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BM1" t="s">
         <v>74</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BN1" t="s">
         <v>75</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BO1" t="s">
         <v>76</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BP1" t="s">
         <v>77</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BQ1" t="s">
         <v>78</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BR1" t="s">
         <v>79</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BS1" t="s">
         <v>80</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BT1" t="s">
         <v>81</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BU1" t="s">
         <v>82</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BV1" t="s">
         <v>83</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BW1" t="s">
         <v>84</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BX1" t="s">
         <v>85</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BY1" t="s">
         <v>86</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BZ1" t="s">
         <v>87</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="CA1" t="s">
         <v>88</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CB1" t="s">
         <v>89</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="CC1" t="s">
         <v>90</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CD1" t="s">
         <v>91</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CE1" t="s">
         <v>92</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CF1" t="s">
         <v>93</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CG1" t="s">
         <v>94</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CH1" t="s">
         <v>95</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CI1" t="s">
         <v>96</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CJ1" t="s">
         <v>97</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CK1" t="s">
         <v>98</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CL1" t="s">
         <v>99</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CM1" t="s">
         <v>100</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CN1" t="s">
         <v>101</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CO1" t="s">
         <v>102</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CP1" t="s">
         <v>103</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CQ1" t="s">
         <v>104</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CR1" t="s">
         <v>105</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CS1" t="s">
         <v>106</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CT1" t="s">
         <v>107</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CU1" t="s">
         <v>108</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CV1" t="s">
         <v>109</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CW1" t="s">
         <v>110</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>112</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>113</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>114</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>116</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>0.331696428571428</v>
@@ -11484,7 +18204,7 @@
     </row>
     <row r="5" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -11789,7 +18509,7 @@
     </row>
     <row r="6" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B6">
         <v>0.32723214285714203</v>
@@ -12094,7 +18814,7 @@
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -12399,7 +19119,7 @@
     </row>
     <row r="8" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B8">
         <v>0.34107142857142803</v>
@@ -12704,7 +19424,7 @@
     </row>
     <row r="9" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -13009,12 +19729,12 @@
     </row>
     <row r="10" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B11">
         <v>3.3035714285714203E-2</v>
@@ -13314,12 +20034,12 @@
         <v>0</v>
       </c>
       <c r="CW11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -13624,7 +20344,7 @@
     </row>
     <row r="13" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B13">
         <v>3.125E-2</v>
@@ -13929,7 +20649,7 @@
     </row>
     <row r="14" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -14234,7 +20954,7 @@
     </row>
     <row r="15" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B15">
         <v>3.5714285714285698E-2</v>
@@ -14534,12 +21254,12 @@
         <v>0</v>
       </c>
       <c r="CW15" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -14844,12 +21564,12 @@
     </row>
     <row r="17" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B18">
         <v>0.33303571428571399</v>
@@ -15154,7 +21874,7 @@
     </row>
     <row r="19" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -15459,7 +22179,7 @@
     </row>
     <row r="20" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B20">
         <v>0.33124999999999999</v>
@@ -15764,7 +22484,7 @@
     </row>
     <row r="21" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -16069,7 +22789,7 @@
     </row>
     <row r="22" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B22">
         <v>0.33571428571428502</v>
@@ -16374,7 +23094,7 @@
     </row>
     <row r="23" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -16686,7 +23406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
@@ -16699,10 +23419,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16711,23 +23431,47 @@
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" t="s">
         <v>131</v>
       </c>
-      <c r="C1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" t="s">
-        <v>133</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>283</v>
       </c>
@@ -16740,8 +23484,26 @@
       <c r="D2">
         <v>0.65714285714285703</v>
       </c>
+      <c r="E2">
+        <v>0.71696428571428505</v>
+      </c>
+      <c r="F2">
+        <v>0.70982142857142805</v>
+      </c>
+      <c r="G2">
+        <v>0.69642857142857095</v>
+      </c>
+      <c r="H2">
+        <v>0.52053571428571399</v>
+      </c>
+      <c r="I2">
+        <v>0.52946428571428505</v>
+      </c>
+      <c r="J2">
+        <v>0.54821428571428499</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>499</v>
       </c>
@@ -16754,204 +23516,474 @@
       <c r="D3">
         <v>0.63526785714285705</v>
       </c>
+      <c r="E3">
+        <v>0.68794642857142796</v>
+      </c>
+      <c r="F3">
+        <v>0.68616071428571401</v>
+      </c>
+      <c r="G3">
+        <v>0.68705357142857104</v>
+      </c>
+      <c r="H3">
+        <v>0.56562500000000004</v>
+      </c>
+      <c r="I3">
+        <v>0.54285714285714204</v>
+      </c>
+      <c r="J3">
+        <v>0.57321428571428501</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>2039</v>
+      </c>
+      <c r="B4">
+        <v>0.59062499999999996</v>
+      </c>
+      <c r="C4">
+        <v>0.53705357142857102</v>
+      </c>
+      <c r="D4">
+        <v>0.61607142857142805</v>
+      </c>
+      <c r="E4">
+        <v>0.70446428571428499</v>
+      </c>
+      <c r="F4">
+        <v>0.69910714285714204</v>
+      </c>
+      <c r="G4">
+        <v>0.69776785714285705</v>
+      </c>
+      <c r="H4">
+        <v>0.60178571428571404</v>
+      </c>
+      <c r="I4">
+        <v>0.60133928571428497</v>
+      </c>
+      <c r="J4">
+        <v>0.60223214285714199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2255</v>
+      </c>
+      <c r="B5">
+        <v>0.57857142857142796</v>
+      </c>
+      <c r="C5">
+        <v>0.354017857142857</v>
+      </c>
+      <c r="D5">
+        <v>0.55133928571428503</v>
+      </c>
+      <c r="E5">
+        <v>0.691071428571428</v>
+      </c>
+      <c r="F5">
+        <v>0.69598214285714199</v>
+      </c>
+      <c r="G5">
+        <v>0.69419642857142805</v>
+      </c>
+      <c r="H5">
+        <v>0.62008928571428501</v>
+      </c>
+      <c r="I5">
+        <v>0.63348214285714199</v>
+      </c>
+      <c r="J5">
+        <v>0.62812500000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1089</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>0.37812499999999999</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>0.60312500000000002</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>0.61696428571428497</v>
       </c>
+      <c r="E6">
+        <v>0.69419642857142805</v>
+      </c>
+      <c r="F6">
+        <v>0.68258928571428501</v>
+      </c>
+      <c r="G6">
+        <v>0.68660714285714197</v>
+      </c>
+      <c r="H6">
+        <v>0.63526785714285705</v>
+      </c>
+      <c r="I6">
+        <v>0.62723214285714202</v>
+      </c>
+      <c r="J6">
+        <v>0.61964285714285705</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2453</v>
+      </c>
+      <c r="B7">
+        <v>0.57946428571428499</v>
+      </c>
+      <c r="C7">
+        <v>0.60178571428571404</v>
+      </c>
+      <c r="D7">
+        <v>0.62232142857142803</v>
+      </c>
+      <c r="E7">
+        <v>0.69553571428571404</v>
+      </c>
+      <c r="F7">
+        <v>0.69151785714285696</v>
+      </c>
+      <c r="G7">
+        <v>0.69866071428571397</v>
+      </c>
+      <c r="H7">
+        <v>0.61428571428571399</v>
+      </c>
+      <c r="I7">
+        <v>0.60312500000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.63660714285714204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4031</v>
+      </c>
+      <c r="B8">
+        <v>0.60401785714285705</v>
+      </c>
+      <c r="C8">
+        <v>0.60624999999999996</v>
+      </c>
+      <c r="D8">
+        <v>0.55089285714285696</v>
+      </c>
+      <c r="E8">
+        <v>0.69598214285714199</v>
+      </c>
+      <c r="F8">
+        <v>0.67857142857142805</v>
+      </c>
+      <c r="G8">
+        <v>0.68482142857142803</v>
+      </c>
+      <c r="H8">
+        <v>0.63482142857142798</v>
+      </c>
+      <c r="I8">
+        <v>0.612946428571428</v>
+      </c>
+      <c r="J8">
+        <v>0.61428571428571399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>1826</v>
       </c>
-      <c r="B5">
+      <c r="B9">
         <v>0.35625000000000001</v>
       </c>
-      <c r="C5">
+      <c r="C9">
         <v>0.61607142857142805</v>
       </c>
-      <c r="D5">
+      <c r="D9">
         <v>0.63526785714285705</v>
       </c>
+      <c r="E9">
+        <v>0.69151785714285696</v>
+      </c>
+      <c r="F9">
+        <v>0.69598214285714199</v>
+      </c>
+      <c r="G9">
+        <v>0.68348214285714204</v>
+      </c>
+      <c r="H9">
+        <v>0.64330357142857097</v>
+      </c>
+      <c r="I9">
+        <v>0.640625</v>
+      </c>
+      <c r="J9">
+        <v>0.63437500000000002</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2039</v>
-      </c>
-      <c r="B6">
-        <v>0.59062499999999996</v>
-      </c>
-      <c r="C6">
-        <v>0.53705357142857102</v>
-      </c>
-      <c r="D6">
-        <v>0.61607142857142805</v>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4215</v>
+      </c>
+      <c r="B10">
+        <v>0.57857142857142796</v>
+      </c>
+      <c r="C10">
+        <v>0.60133928571428497</v>
+      </c>
+      <c r="D10">
+        <v>0.63214285714285701</v>
+      </c>
+      <c r="E10">
+        <v>0.69017857142857097</v>
+      </c>
+      <c r="F10">
+        <v>0.67991071428571404</v>
+      </c>
+      <c r="G10">
+        <v>0.69017857142857097</v>
+      </c>
+      <c r="H10">
+        <v>0.63035714285714195</v>
+      </c>
+      <c r="I10">
+        <v>0.64196428571428499</v>
+      </c>
+      <c r="J10">
+        <v>0.65</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2255</v>
-      </c>
-      <c r="B7">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2782</v>
+      </c>
+      <c r="B11">
         <v>0.57857142857142796</v>
       </c>
-      <c r="C7">
-        <v>0.354017857142857</v>
-      </c>
-      <c r="D7">
-        <v>0.55133928571428503</v>
+      <c r="C11">
+        <v>0.60535714285714204</v>
+      </c>
+      <c r="D11">
+        <v>0.63437500000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.67455357142857097</v>
+      </c>
+      <c r="F11">
+        <v>0.67455357142857097</v>
+      </c>
+      <c r="G11">
+        <v>0.671875</v>
+      </c>
+      <c r="H11">
+        <v>0.63348214285714199</v>
+      </c>
+      <c r="I11">
+        <v>0.65089285714285705</v>
+      </c>
+      <c r="J11">
+        <v>0.65401785714285698</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2453</v>
-      </c>
-      <c r="B8">
-        <v>0.57946428571428499</v>
-      </c>
-      <c r="C8">
-        <v>0.60178571428571404</v>
-      </c>
-      <c r="D8">
-        <v>0.62232142857142803</v>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4396</v>
+      </c>
+      <c r="B12">
+        <v>0.58035714285714202</v>
+      </c>
+      <c r="C12">
+        <v>0.62187499999999996</v>
+      </c>
+      <c r="D12">
+        <v>0.64508928571428503</v>
+      </c>
+      <c r="E12">
+        <v>0.68214285714285705</v>
+      </c>
+      <c r="F12">
+        <v>0.67633928571428503</v>
+      </c>
+      <c r="G12">
+        <v>0.67008928571428505</v>
+      </c>
+      <c r="H12">
+        <v>0.640625</v>
+      </c>
+      <c r="I12">
+        <v>0.65446428571428505</v>
+      </c>
+      <c r="J12">
+        <v>0.65223214285714204</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2782</v>
-      </c>
-      <c r="B9">
-        <v>0.57857142857142796</v>
-      </c>
-      <c r="C9">
-        <v>0.60535714285714204</v>
-      </c>
-      <c r="D9">
-        <v>0.63437500000000002</v>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6012</v>
+      </c>
+      <c r="B13">
+        <v>0.62366071428571401</v>
+      </c>
+      <c r="C13">
+        <v>0.63303571428571404</v>
+      </c>
+      <c r="D13">
+        <v>0.62678571428571395</v>
+      </c>
+      <c r="E13">
+        <v>0.67901785714285701</v>
+      </c>
+      <c r="F13">
+        <v>0.67857142857142805</v>
+      </c>
+      <c r="G13">
+        <v>0.67901785714285701</v>
+      </c>
+      <c r="H13">
+        <v>0.64107142857142796</v>
+      </c>
+      <c r="I13">
+        <v>0.65803571428571395</v>
+      </c>
+      <c r="J13">
+        <v>0.67633928571428503</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>3277</v>
       </c>
-      <c r="B10">
+      <c r="B14">
         <v>0.57901785714285703</v>
       </c>
-      <c r="C10">
+      <c r="C14">
         <v>0.64107142857142796</v>
       </c>
-      <c r="D10">
+      <c r="D14">
         <v>0.64107142857142796</v>
       </c>
+      <c r="E14">
+        <v>0.668303571428571</v>
+      </c>
+      <c r="F14">
+        <v>0.67723214285714195</v>
+      </c>
+      <c r="G14">
+        <v>0.65669642857142796</v>
+      </c>
+      <c r="H14">
+        <v>0.65089285714285705</v>
+      </c>
+      <c r="I14">
+        <v>0.66339285714285701</v>
+      </c>
+      <c r="J14">
+        <v>0.67366071428571395</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4031</v>
-      </c>
-      <c r="B11">
-        <v>0.60401785714285705</v>
-      </c>
-      <c r="C11">
-        <v>0.60624999999999996</v>
-      </c>
-      <c r="D11">
-        <v>0.55089285714285696</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4215</v>
-      </c>
-      <c r="B12">
-        <v>0.57857142857142796</v>
-      </c>
-      <c r="C12">
-        <v>0.60133928571428497</v>
-      </c>
-      <c r="D12">
-        <v>0.63214285714285701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4396</v>
-      </c>
-      <c r="B13">
-        <v>0.58035714285714202</v>
-      </c>
-      <c r="C13">
-        <v>0.62187499999999996</v>
-      </c>
-      <c r="D13">
-        <v>0.64508928571428503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>4621</v>
-      </c>
-      <c r="B14">
-        <v>0.57633928571428505</v>
-      </c>
-      <c r="C14">
-        <v>0.63124999999999998</v>
-      </c>
-      <c r="D14">
-        <v>0.64687499999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4721</v>
       </c>
       <c r="B15">
         <v>0.57633928571428505</v>
       </c>
       <c r="C15">
+        <v>0.63124999999999998</v>
+      </c>
+      <c r="D15">
+        <v>0.64687499999999998</v>
+      </c>
+      <c r="E15">
+        <v>0.66696428571428501</v>
+      </c>
+      <c r="F15">
+        <v>0.66383928571428497</v>
+      </c>
+      <c r="G15">
+        <v>0.66116071428571399</v>
+      </c>
+      <c r="H15">
+        <v>0.64955357142857095</v>
+      </c>
+      <c r="I15">
+        <v>0.66874999999999996</v>
+      </c>
+      <c r="J15">
+        <v>0.66874999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6111</v>
+      </c>
+      <c r="B16">
+        <v>0.581696428571428</v>
+      </c>
+      <c r="C16">
+        <v>0.62410714285714197</v>
+      </c>
+      <c r="D16">
+        <v>0.63616071428571397</v>
+      </c>
+      <c r="E16">
+        <v>0.64866071428571404</v>
+      </c>
+      <c r="F16">
+        <v>0.66517857142857095</v>
+      </c>
+      <c r="G16">
+        <v>0.67098214285714197</v>
+      </c>
+      <c r="H16">
+        <v>0.64866071428571404</v>
+      </c>
+      <c r="I16">
+        <v>0.67142857142857104</v>
+      </c>
+      <c r="J16">
+        <v>0.67366071428571395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4721</v>
+      </c>
+      <c r="B17">
+        <v>0.57633928571428505</v>
+      </c>
+      <c r="C17">
         <v>0.63660714285714204</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>0.64598214285714195</v>
       </c>
+      <c r="E17">
+        <v>0.64687499999999998</v>
+      </c>
+      <c r="F17">
+        <v>0.66383928571428497</v>
+      </c>
+      <c r="G17">
+        <v>0.659821428571428</v>
+      </c>
+      <c r="H17">
+        <v>0.65937500000000004</v>
+      </c>
+      <c r="I17">
+        <v>0.64642857142857102</v>
+      </c>
+      <c r="J17">
+        <v>0.66607142857142798</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>6012</v>
-      </c>
-      <c r="B16">
-        <v>0.62366071428571401</v>
-      </c>
-      <c r="C16">
-        <v>0.63303571428571404</v>
-      </c>
-      <c r="D16">
-        <v>0.62678571428571395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>6111</v>
-      </c>
-      <c r="B17">
-        <v>0.581696428571428</v>
-      </c>
-      <c r="C17">
-        <v>0.62410714285714197</v>
-      </c>
-      <c r="D17">
-        <v>0.63616071428571397</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6208</v>
       </c>
@@ -16964,50 +23996,122 @@
       <c r="D18">
         <v>0.63482142857142798</v>
       </c>
+      <c r="E18">
+        <v>0.64642857142857102</v>
+      </c>
+      <c r="F18">
+        <v>0.66428571428571404</v>
+      </c>
+      <c r="G18">
+        <v>0.66785714285714204</v>
+      </c>
+      <c r="H18">
+        <v>0.65758928571428499</v>
+      </c>
+      <c r="I18">
+        <v>0.67232142857142796</v>
+      </c>
+      <c r="J18">
+        <v>0.67366071428571395</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>8022</v>
+      </c>
+      <c r="B19">
+        <v>0.625</v>
+      </c>
+      <c r="C19">
+        <v>0.637053571428571</v>
+      </c>
+      <c r="D19">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="E19">
+        <v>0.64553571428571399</v>
+      </c>
+      <c r="F19">
+        <v>0.65758928571428499</v>
+      </c>
+      <c r="G19">
+        <v>0.66964285714285698</v>
+      </c>
+      <c r="H19">
+        <v>0.66071428571428503</v>
+      </c>
+      <c r="I19">
+        <v>0.67857142857142805</v>
+      </c>
+      <c r="J19">
+        <v>0.66964285714285698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>6361</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>0.56651785714285696</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>0.62232142857142803</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>0.64330357142857097</v>
       </c>
+      <c r="E20">
+        <v>0.64508928571428503</v>
+      </c>
+      <c r="F20">
+        <v>0.65803571428571395</v>
+      </c>
+      <c r="G20">
+        <v>0.67098214285714197</v>
+      </c>
+      <c r="H20">
+        <v>0.67142857142857104</v>
+      </c>
+      <c r="I20">
+        <v>0.67723214285714195</v>
+      </c>
+      <c r="J20">
+        <v>0.66071428571428503</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>6382</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>0.56964285714285701</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>0.63392857142857095</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>0.64241071428571395</v>
       </c>
+      <c r="E21">
+        <v>0.64955357142857095</v>
+      </c>
+      <c r="F21">
+        <v>0.659821428571428</v>
+      </c>
+      <c r="G21">
+        <v>0.66026785714285696</v>
+      </c>
+      <c r="H21">
+        <v>0.67410714285714202</v>
+      </c>
+      <c r="I21">
+        <v>0.68035714285714199</v>
+      </c>
+      <c r="J21">
+        <v>0.67410714285714202</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>8022</v>
-      </c>
-      <c r="B21">
-        <v>0.625</v>
-      </c>
-      <c r="C21">
-        <v>0.637053571428571</v>
-      </c>
-      <c r="D21">
-        <v>0.63749999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8136</v>
       </c>
@@ -17020,64 +24124,154 @@
       <c r="D22">
         <v>0.63883928571428505</v>
       </c>
+      <c r="E22">
+        <v>0.65089285714285705</v>
+      </c>
+      <c r="F22">
+        <v>0.65401785714285698</v>
+      </c>
+      <c r="G22">
+        <v>0.66294642857142805</v>
+      </c>
+      <c r="H22">
+        <v>0.668303571428571</v>
+      </c>
+      <c r="I22">
+        <v>0.68035714285714199</v>
+      </c>
+      <c r="J22">
+        <v>0.70089285714285698</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>10029</v>
+      </c>
+      <c r="B23">
+        <v>0.63124999999999998</v>
+      </c>
+      <c r="C23">
+        <v>0.63928571428571401</v>
+      </c>
+      <c r="D23">
+        <v>0.63035714285714195</v>
+      </c>
+      <c r="E23">
+        <v>0.65089285714285705</v>
+      </c>
+      <c r="F23">
+        <v>0.65446428571428505</v>
+      </c>
+      <c r="G23">
+        <v>0.66696428571428501</v>
+      </c>
+      <c r="H23">
+        <v>0.67767857142857102</v>
+      </c>
+      <c r="I23">
+        <v>0.68794642857142796</v>
+      </c>
+      <c r="J23">
+        <v>0.68571428571428505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>8247</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>0.58526785714285701</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>0.62633928571428499</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>0.64196428571428499</v>
       </c>
+      <c r="E24">
+        <v>0.65133928571428501</v>
+      </c>
+      <c r="F24">
+        <v>0.65714285714285703</v>
+      </c>
+      <c r="G24">
+        <v>0.67142857142857104</v>
+      </c>
+      <c r="H24">
+        <v>0.66517857142857095</v>
+      </c>
+      <c r="I24">
+        <v>0.68303571428571397</v>
+      </c>
+      <c r="J24">
+        <v>0.67991071428571404</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>8401</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>0.581696428571428</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>0.62232142857142803</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>0.63348214285714199</v>
       </c>
+      <c r="E25">
+        <v>0.65044642857142798</v>
+      </c>
+      <c r="F25">
+        <v>0.66651785714285705</v>
+      </c>
+      <c r="G25">
+        <v>0.66651785714285705</v>
+      </c>
+      <c r="H25">
+        <v>0.68303571428571397</v>
+      </c>
+      <c r="I25">
+        <v>0.683928571428571</v>
+      </c>
+      <c r="J25">
+        <v>0.68526785714285698</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>8422</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>0.58035714285714202</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>0.64151785714285703</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>0.628571428571428</v>
       </c>
+      <c r="E26">
+        <v>0.64687499999999998</v>
+      </c>
+      <c r="F26">
+        <v>0.66473214285714199</v>
+      </c>
+      <c r="G26">
+        <v>0.67008928571428505</v>
+      </c>
+      <c r="H26">
+        <v>0.68526785714285698</v>
+      </c>
+      <c r="I26">
+        <v>0.70089285714285698</v>
+      </c>
+      <c r="J26">
+        <v>0.68303571428571397</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>10029</v>
-      </c>
-      <c r="B26">
-        <v>0.63124999999999998</v>
-      </c>
-      <c r="C26">
-        <v>0.63928571428571401</v>
-      </c>
-      <c r="D26">
-        <v>0.63035714285714195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10184</v>
       </c>
@@ -17090,8 +24284,26 @@
       <c r="D27">
         <v>0.63749999999999996</v>
       </c>
+      <c r="E27">
+        <v>0.64687499999999998</v>
+      </c>
+      <c r="F27">
+        <v>0.66160714285714195</v>
+      </c>
+      <c r="G27">
+        <v>0.65848214285714202</v>
+      </c>
+      <c r="H27">
+        <v>0.67008928571428505</v>
+      </c>
+      <c r="I27">
+        <v>0.69821428571428501</v>
+      </c>
+      <c r="J27">
+        <v>0.67946428571428497</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10312</v>
       </c>
@@ -17104,8 +24316,26 @@
       <c r="D28">
         <v>0.63303571428571404</v>
       </c>
+      <c r="E28">
+        <v>0.64776785714285701</v>
+      </c>
+      <c r="F28">
+        <v>0.66383928571428497</v>
+      </c>
+      <c r="G28">
+        <v>0.66339285714285701</v>
+      </c>
+      <c r="H28">
+        <v>0.67321428571428499</v>
+      </c>
+      <c r="I28">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="J28">
+        <v>0.69062500000000004</v>
+      </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10512</v>
       </c>
@@ -17118,8 +24348,26 @@
       <c r="D29">
         <v>0.63794642857142803</v>
       </c>
+      <c r="E29">
+        <v>0.64642857142857102</v>
+      </c>
+      <c r="F29">
+        <v>0.66517857142857095</v>
+      </c>
+      <c r="G29">
+        <v>0.67098214285714197</v>
+      </c>
+      <c r="H29">
+        <v>0.68035714285714199</v>
+      </c>
+      <c r="I29">
+        <v>0.67455357142857097</v>
+      </c>
+      <c r="J29">
+        <v>0.67991071428571404</v>
+      </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10539</v>
       </c>
@@ -17131,6 +24379,24 @@
       </c>
       <c r="D30">
         <v>0.63749999999999996</v>
+      </c>
+      <c r="E30">
+        <v>0.64642857142857102</v>
+      </c>
+      <c r="F30">
+        <v>0.65848214285714202</v>
+      </c>
+      <c r="G30">
+        <v>0.66562500000000002</v>
+      </c>
+      <c r="H30">
+        <v>0.67410714285714202</v>
+      </c>
+      <c r="I30">
+        <v>0.691071428571428</v>
+      </c>
+      <c r="J30">
+        <v>0.68973214285714202</v>
       </c>
     </row>
   </sheetData>
@@ -17139,4 +24405,19 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/AmazoneTest/report/summary.xlsx
+++ b/AmazoneTest/report/summary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="158">
   <si>
     <t>#features</t>
   </si>
@@ -457,12 +457,51 @@
   <si>
     <t>Pro</t>
   </si>
+  <si>
+    <t>עבור Hperbolic</t>
+  </si>
+  <si>
+    <t>Against    549.0    116.0    78.0</t>
+  </si>
+  <si>
+    <t>Natural    131.0    424.0    178.0</t>
+  </si>
+  <si>
+    <t>Pro    39.0    102.0    623.0</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Naive Bayes</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Linear SVM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,8 +637,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,8 +832,32 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -895,8 +972,472 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -939,11 +1480,66 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="13"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="20" xfId="13" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="34" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="34" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -977,6 +1573,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -22306,6 +22903,20 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:F8" totalsRowShown="0">
+  <autoFilter ref="B2:F8"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -33874,62 +34485,263 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="W10:Z13"/>
+  <dimension ref="B2:Q21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="6" width="11" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="10" spans="23:26" x14ac:dyDescent="0.25">
-      <c r="X10" t="s">
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="14"/>
+      <c r="G3" s="52"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="52"/>
+      <c r="H4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="16">
+        <v>560</v>
+      </c>
+      <c r="D5" s="17">
+        <v>106</v>
+      </c>
+      <c r="E5" s="25">
+        <v>77</v>
+      </c>
+      <c r="F5" s="34">
+        <f>C5/SUM(C5:E5)</f>
+        <v>0.75370121130551815</v>
+      </c>
+      <c r="G5" s="52"/>
+      <c r="H5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="18">
+        <v>544</v>
+      </c>
+      <c r="J5" s="19">
+        <v>119</v>
+      </c>
+      <c r="K5" s="28">
+        <v>80</v>
+      </c>
+      <c r="L5" s="35">
+        <f>I5/SUM(I5:K5)</f>
+        <v>0.73216689098250332</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="8">
+        <v>119</v>
+      </c>
+      <c r="D6" s="6">
+        <v>454</v>
+      </c>
+      <c r="E6" s="26">
+        <v>160</v>
+      </c>
+      <c r="F6" s="30">
+        <f>D6/SUM(C6:E6)</f>
+        <v>0.61937244201909958</v>
+      </c>
+      <c r="G6" s="52"/>
+      <c r="H6" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="9">
+        <v>120</v>
+      </c>
+      <c r="J6" s="7">
+        <v>449</v>
+      </c>
+      <c r="K6" s="29">
+        <v>164</v>
+      </c>
+      <c r="L6" s="32">
+        <f>J6/SUM(I6:K6)</f>
+        <v>0.61255115961800821</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="39">
+        <v>45</v>
+      </c>
+      <c r="D7" s="40">
+        <v>92</v>
+      </c>
+      <c r="E7" s="41">
+        <v>627</v>
+      </c>
+      <c r="F7" s="31">
+        <f>E7/SUM(C7:E7)</f>
+        <v>0.8206806282722513</v>
+      </c>
+      <c r="G7" s="52"/>
+      <c r="H7" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="47">
+        <v>50</v>
+      </c>
+      <c r="J7" s="48">
+        <v>122</v>
+      </c>
+      <c r="K7" s="49">
+        <v>592</v>
+      </c>
+      <c r="L7" s="33">
+        <f>K7/SUM(I7:K7)</f>
+        <v>0.77486910994764402</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="51">
+        <f>C5/SUM(C5:C7)</f>
+        <v>0.77348066298342544</v>
+      </c>
+      <c r="D8" s="42">
+        <f>D6/SUM(D5:D7)</f>
+        <v>0.69631901840490795</v>
+      </c>
+      <c r="E8" s="43">
+        <f>E7/SUM(E5:E7)</f>
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F8" s="53"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" s="50">
+        <f>I5/SUM(I5:I7)</f>
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="J8" s="44">
+        <f>J6/SUM(J5:J7)</f>
+        <v>0.6507246376811594</v>
+      </c>
+      <c r="K8" s="45">
+        <f>K7/SUM(K5:K7)</f>
+        <v>0.70813397129186606</v>
+      </c>
+      <c r="L8" s="54"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="17" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q17" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q18" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="23:26" x14ac:dyDescent="0.25">
-      <c r="W11" t="s">
-        <v>122</v>
-      </c>
-      <c r="X11">
-        <v>560</v>
-      </c>
-      <c r="Y11">
-        <v>106</v>
-      </c>
-      <c r="Z11">
-        <v>77</v>
+    <row r="19" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="12" spans="23:26" x14ac:dyDescent="0.25">
-      <c r="W12" t="s">
-        <v>143</v>
-      </c>
-      <c r="X12">
-        <v>119</v>
-      </c>
-      <c r="Y12">
-        <v>454</v>
-      </c>
-      <c r="Z12">
-        <v>160</v>
+    <row r="20" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q20" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="13" spans="23:26" x14ac:dyDescent="0.25">
-      <c r="W13" t="s">
-        <v>144</v>
-      </c>
-      <c r="X13">
-        <v>45</v>
-      </c>
-      <c r="Y13">
-        <v>92</v>
-      </c>
-      <c r="Z13">
-        <v>627</v>
+    <row r="21" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q20" r:id="rId1" display="tel:131.0%C2%A0%C2%A0%C2%A0 424.0"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/AmazoneTest/report/summary.xlsx
+++ b/AmazoneTest/report/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18240" windowHeight="8505" tabRatio="578" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18240" windowHeight="8505" tabRatio="578" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="sum" sheetId="1" r:id="rId1"/>
@@ -1540,49 +1540,49 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="הדגשה1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="הדגשה2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="הדגשה3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="הדגשה4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="הדגשה5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="הדגשה6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="היפר-קישור" xfId="42" builtinId="8"/>
+    <cellStyle name="הערה" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="חישוב" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="טוב" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="טקסט אזהרה" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="טקסט הסברי" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="כותרת" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="כותרת 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="כותרת 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="כותרת 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="כותרת 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="ניטראלי" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="סה&quot;כ" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="פלט" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="קלט" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="רע" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="תא מסומן" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="תא מקושר" xfId="12" builtinId="24" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1633,7 +1633,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3553,11 +3552,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="89143936"/>
-        <c:axId val="89158400"/>
+        <c:axId val="96684672"/>
+        <c:axId val="96690944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89143936"/>
+        <c:axId val="96684672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3580,19 +3579,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89158400"/>
+        <c:crossAx val="96690944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89158400"/>
+        <c:axId val="96690944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.76000000000000012"/>
@@ -3618,21 +3616,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89143936"/>
+        <c:crossAx val="96684672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3648,6 +3644,637 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Naive bayes </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="he-IL" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>בתחום 0 עד 1000</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3085739282589675E-2"/>
+          <c:y val="0.19480351414406533"/>
+          <c:w val="0.84819203849518809"/>
+          <c:h val="0.68826735199766698"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>InformationGain</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.54821428571428499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61205357142857097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63258928571428497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64464285714285696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65044642857142798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65491071428571401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66562500000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67455357142857097</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68526785714285698</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68437499999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69241071428571399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70267857142857104</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.703125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.70580357142857097</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.71696428571428505</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.71785714285714197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.71696428571428505</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.71696428571428505</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.71785714285714197</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.71696428571428505</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.71741071428571401</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.71785714285714197</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.71830357142857104</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.71830357142857104</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.71607142857142803</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71473214285714204</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.71473214285714204</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.715178571428571</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71116071428571404</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.70937499999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.70982142857142805</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.71205357142857095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Symmetric</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.55446428571428497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60624999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63348214285714199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64598214285714195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65178571428571397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.659821428571428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66696428571428501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67678571428571399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68303571428571397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68526785714285698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69419642857142805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70357142857142796</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70357142857142796</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.70714285714285696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.71651785714285698</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.71785714285714197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.71741071428571401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.71741071428571401</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72008928571428499</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.71785714285714197</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.71607142857142803</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.71696428571428505</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.71785714285714197</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.71830357142857104</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.71785714285714197</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.71607142857142803</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71473214285714204</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.71428571428571397</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.71473214285714204</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71026785714285701</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.70937499999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.71116071428571404</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.71116071428571404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="108207488"/>
+        <c:axId val="108226048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="108207488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108226048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="108226048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.73000000000000009"/>
+          <c:min val="0.53"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108207488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.64118110236220471"/>
+          <c:y val="0.7102063283756197"/>
+          <c:w val="0.23381889763779529"/>
+          <c:h val="0.16743438320209975"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4179,11 +4806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="33577600"/>
-        <c:axId val="35922304"/>
+        <c:axId val="108267776"/>
+        <c:axId val="108274048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="33577600"/>
+        <c:axId val="108267776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -4228,12 +4855,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35922304"/>
+        <c:crossAx val="108274048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35922304"/>
+        <c:axId val="108274048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.73000000000000009"/>
@@ -4272,7 +4899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33577600"/>
+        <c:crossAx val="108267776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4303,7 +4930,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4827,11 +5454,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="35947648"/>
-        <c:axId val="35949184"/>
+        <c:axId val="108303872"/>
+        <c:axId val="108305792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35947648"/>
+        <c:axId val="108303872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -4873,12 +5500,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35949184"/>
+        <c:crossAx val="108305792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35949184"/>
+        <c:axId val="108305792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.73000000000000009"/>
@@ -4917,7 +5544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35947648"/>
+        <c:crossAx val="108303872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4948,7 +5575,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6910,11 +7537,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="86853120"/>
-        <c:axId val="86855040"/>
+        <c:axId val="108422656"/>
+        <c:axId val="108424576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86853120"/>
+        <c:axId val="108422656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6944,12 +7571,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86855040"/>
+        <c:crossAx val="108424576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86855040"/>
+        <c:axId val="108424576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.73000000000000009"/>
@@ -6982,7 +7609,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86853120"/>
+        <c:crossAx val="108422656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7013,7 +7640,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8975,11 +9602,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="86890368"/>
-        <c:axId val="87162880"/>
+        <c:axId val="108455424"/>
+        <c:axId val="108457344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86890368"/>
+        <c:axId val="108455424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9009,12 +9636,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87162880"/>
+        <c:crossAx val="108457344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87162880"/>
+        <c:axId val="108457344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.59"/>
@@ -9046,7 +9673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86890368"/>
+        <c:crossAx val="108455424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9077,7 +9704,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9116,7 +9743,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11036,11 +11662,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="87494656"/>
-        <c:axId val="87496576"/>
+        <c:axId val="108832640"/>
+        <c:axId val="108843008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87494656"/>
+        <c:axId val="108832640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11063,19 +11689,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87496576"/>
+        <c:crossAx val="108843008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87496576"/>
+        <c:axId val="108843008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.76000000000000012"/>
@@ -11101,14 +11726,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87494656"/>
+        <c:crossAx val="108832640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11178,7 +11802,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -13101,11 +13724,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="90446464"/>
-        <c:axId val="90452736"/>
+        <c:axId val="96725632"/>
+        <c:axId val="96748288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90446464"/>
+        <c:axId val="96725632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13128,19 +13751,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90452736"/>
+        <c:crossAx val="96748288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90452736"/>
+        <c:axId val="96748288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.73000000000000009"/>
@@ -13166,21 +13788,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90446464"/>
+        <c:crossAx val="96725632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13234,7 +13854,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -15157,11 +15776,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="90491520"/>
-        <c:axId val="90379008"/>
+        <c:axId val="96778880"/>
+        <c:axId val="96781056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90491520"/>
+        <c:axId val="96778880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15184,19 +15803,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90379008"/>
+        <c:crossAx val="96781056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90379008"/>
+        <c:axId val="96781056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.59"/>
@@ -15221,21 +15839,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90491520"/>
+        <c:crossAx val="96778880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15280,7 +15896,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -17248,11 +17863,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="89408256"/>
-        <c:axId val="89410176"/>
+        <c:axId val="95994624"/>
+        <c:axId val="95996544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89408256"/>
+        <c:axId val="95994624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -17275,19 +17890,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89410176"/>
+        <c:crossAx val="95996544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89410176"/>
+        <c:axId val="95996544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -17312,14 +17926,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89408256"/>
+        <c:crossAx val="95994624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17384,7 +17997,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -19256,11 +19868,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="90592000"/>
-        <c:axId val="90593920"/>
+        <c:axId val="96022912"/>
+        <c:axId val="96024832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90592000"/>
+        <c:axId val="96022912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -19283,19 +19895,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90593920"/>
+        <c:crossAx val="96024832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90593920"/>
+        <c:axId val="96024832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -19320,14 +19931,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90592000"/>
+        <c:crossAx val="96022912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19363,6 +19973,810 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="he-IL"/>
+              <a:t>השוואה</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="he-IL" baseline="0"/>
+              <a:t> בין מסווגים בעזרת </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Cross Validation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="he-IL" baseline="0"/>
+              <a:t> בשימוש ב </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Information Gain Selector</a:t>
+            </a:r>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2372133672964217E-2"/>
+          <c:y val="0.13486354205724285"/>
+          <c:w val="0.86660902898201997"/>
+          <c:h val="0.73040209973753278"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Naïve Bayes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון6!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3277</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4396</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4621</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4721</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6111</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6208</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6361</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6382</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8247</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8401</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8422</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10029</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10512</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון6!$E$2:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.71696428571428505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68794642857142796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69419642857142805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69151785714285696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70446428571428499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.691071428571428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69553571428571404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67455357142857097</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.668303571428571</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69598214285714199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69017857142857097</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.68214285714285705</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66696428571428501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.64687499999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.67901785714285701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.64866071428571404</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.64642857142857102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.64508928571428503</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64955357142857095</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.64553571428571399</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65089285714285705</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65133928571428501</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.65044642857142798</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.64687499999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65089285714285705</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.64687499999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.64776785714285701</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.64642857142857102</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.64642857142857102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Linear SVM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון6!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3277</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4396</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4621</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4721</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6111</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6208</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6361</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6382</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8247</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8401</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8422</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10029</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10512</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון6!$F$2:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.70982142857142805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68616071428571401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68258928571428501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69598214285714199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69910714285714204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69598214285714199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69151785714285696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67455357142857097</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67723214285714195</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67857142857142805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67991071428571404</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67633928571428503</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66383928571428497</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66383928571428497</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.67857142857142805</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66517857142857095</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66428571428571404</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.65803571428571395</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.659821428571428</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.65758928571428499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65401785714285698</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65714285714285703</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66651785714285705</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.66473214285714199</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65446428571428505</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.66160714285714195</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.66383928571428497</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.66517857142857095</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.65848214285714202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Gaussian SVM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון6!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3277</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4396</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4621</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4721</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6111</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6208</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6361</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6382</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8247</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8401</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8422</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10029</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10512</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון6!$G$2:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.69642857142857095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68705357142857104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68660714285714197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68348214285714204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69776785714285705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69419642857142805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69866071428571397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.671875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65669642857142796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68482142857142803</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69017857142857097</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67008928571428505</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66116071428571399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.659821428571428</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.67901785714285701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67098214285714197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66785714285714204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67098214285714197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66026785714285696</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.66964285714285698</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.66294642857142805</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.67142857142857104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66651785714285705</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67008928571428505</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.66696428571428501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.65848214285714202</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.66339285714285701</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.67098214285714197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66562500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="113613440"/>
+        <c:axId val="86907904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="113613440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="1" algn="l" rtl="1">
+                  <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1300"/>
+                  <a:t>#features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.25548694716637765"/>
+              <c:y val="0.89841269841269844"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86907904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="86907904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113613440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72497365648050582"/>
+          <c:y val="0.13396985376827897"/>
+          <c:w val="0.1047835406243345"/>
+          <c:h val="0.13777457817772779"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -20075,11 +21489,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101975552"/>
-        <c:axId val="101977472"/>
+        <c:axId val="96133120"/>
+        <c:axId val="96135040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101975552"/>
+        <c:axId val="96133120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20109,12 +21523,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101977472"/>
+        <c:crossAx val="96135040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101977472"/>
+        <c:axId val="96135040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.35000000000000003"/>
@@ -20146,7 +21560,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101975552"/>
+        <c:crossAx val="96133120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20163,7 +21577,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -20888,11 +22302,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111252608"/>
-        <c:axId val="111254528"/>
+        <c:axId val="108370176"/>
+        <c:axId val="108384640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111252608"/>
+        <c:axId val="108370176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20922,12 +22336,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111254528"/>
+        <c:crossAx val="108384640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111254528"/>
+        <c:axId val="108384640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -20959,7 +22373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111252608"/>
+        <c:crossAx val="108370176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20976,7 +22390,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -21689,11 +23103,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111275392"/>
-        <c:axId val="111629824"/>
+        <c:axId val="108114304"/>
+        <c:axId val="108116224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111275392"/>
+        <c:axId val="108114304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21723,12 +23137,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111629824"/>
+        <c:crossAx val="108116224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111629824"/>
+        <c:axId val="108116224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -21760,7 +23174,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111275392"/>
+        <c:crossAx val="108114304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21790,640 +23204,6 @@
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Naive bayes </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="he-IL" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>בתחום 0 עד 1000</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.3085739282589675E-2"/>
-          <c:y val="0.19480351414406533"/>
-          <c:w val="0.84819203849518809"/>
-          <c:h val="0.68826735199766698"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>InformationGain</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>660</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>690</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>780</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>810</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>930</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>990</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>0.54821428571428499</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61205357142857097</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.63258928571428497</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.64464285714285696</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65044642857142798</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.65491071428571401</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.66562500000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.67455357142857097</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.68526785714285698</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.68437499999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.69241071428571399</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.70267857142857104</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.703125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.70580357142857097</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.71696428571428505</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.71785714285714197</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.71696428571428505</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.71696428571428505</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.71875</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.71785714285714197</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.71696428571428505</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.71741071428571401</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.71785714285714197</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.71830357142857104</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.71830357142857104</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.71607142857142803</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.71473214285714204</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.71473214285714204</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.715178571428571</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.71116071428571404</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.70937499999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.70982142857142805</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.71205357142857095</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Symmetric</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>660</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>690</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>780</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>810</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>930</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>990</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>0.55446428571428497</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.60624999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.63348214285714199</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.64598214285714195</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65178571428571397</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.659821428571428</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.66696428571428501</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.67678571428571399</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.68303571428571397</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.68526785714285698</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.69419642857142805</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.70357142857142796</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.70357142857142796</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.70714285714285696</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.71651785714285698</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.71785714285714197</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.71741071428571401</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.71741071428571401</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.72008928571428499</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.71785714285714197</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.71607142857142803</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.71696428571428505</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.71785714285714197</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.71830357142857104</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.71785714285714197</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.71607142857142803</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.71473214285714204</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.71428571428571397</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.71473214285714204</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.71026785714285701</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.70937499999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.71116071428571404</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.71116071428571404</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="134097152"/>
-        <c:axId val="134095616"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="134097152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1000"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>#features</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134095616"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="134095616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.73000000000000009"/>
-          <c:min val="0.53"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>accuracy</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134097152"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.64118110236220471"/>
-          <c:y val="0.7102063283756197"/>
-          <c:w val="0.23381889763779529"/>
-          <c:h val="0.16743438320209975"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -22612,6 +23392,98 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="תרשים 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.34563</cdr:x>
+      <cdr:y>0.81333</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.87355</cdr:x>
+      <cdr:y>0.95429</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="אליפסה 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3124201" y="4067176"/>
+          <a:ext cx="4772025" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>54909</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>189380</xdr:rowOff>
@@ -22708,7 +23580,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -22918,7 +23790,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -32273,8 +33145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33256,6 +34128,7 @@
     <sortCondition ref="A2:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33263,7 +34136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -34487,7 +35360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:F8"/>
     </sheetView>
   </sheetViews>
